--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.28939643388716</v>
+        <v>7.289396433887073</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.201426650050142</v>
+        <v>6.20142665005015</v>
       </c>
       <c r="E2">
-        <v>44.98089777157153</v>
+        <v>44.98089777157089</v>
       </c>
       <c r="F2">
-        <v>45.46793304235062</v>
+        <v>45.46793304235028</v>
       </c>
       <c r="G2">
-        <v>36.36496713551684</v>
+        <v>36.36496713551657</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>75.37767672132466</v>
+        <v>75.37767672132394</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.915680818500221</v>
+        <v>6.91568081850022</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.373468444167047</v>
+        <v>5.37346844416717</v>
       </c>
       <c r="E3">
-        <v>41.22480270193805</v>
+        <v>41.22480270193837</v>
       </c>
       <c r="F3">
-        <v>40.36724229575338</v>
+        <v>40.36724229575329</v>
       </c>
       <c r="G3">
-        <v>32.183199497043</v>
+        <v>32.18319949704293</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>69.11284079068835</v>
+        <v>69.11284079068868</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.682389395676959</v>
+        <v>6.682389395677199</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.898033627021526</v>
+        <v>4.898033627021528</v>
       </c>
       <c r="E4">
-        <v>38.92021412618139</v>
+        <v>38.92021412618111</v>
       </c>
       <c r="F4">
-        <v>37.36936124670201</v>
+        <v>37.36936124670207</v>
       </c>
       <c r="G4">
-        <v>29.72753877052184</v>
+        <v>29.72753877052186</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>65.26144657413452</v>
+        <v>65.26144657413427</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586358995397267</v>
+        <v>6.586358995397422</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.709836732739689</v>
+        <v>4.709836732739726</v>
       </c>
       <c r="E5">
-        <v>37.9744486813687</v>
+        <v>37.97444868136807</v>
       </c>
       <c r="F5">
-        <v>36.16861806282645</v>
+        <v>36.16861806282677</v>
       </c>
       <c r="G5">
-        <v>28.74415828565909</v>
+        <v>28.74415828565939</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>63.67964054024894</v>
+        <v>63.67964054024831</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57035622205809</v>
+        <v>6.57035622205812</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.678859495343172</v>
+        <v>4.678859495343223</v>
       </c>
       <c r="E6">
-        <v>37.81684442593365</v>
+        <v>37.81684442593411</v>
       </c>
       <c r="F6">
-        <v>35.97021314597025</v>
+        <v>35.9702131459704</v>
       </c>
       <c r="G6">
-        <v>28.58167105505047</v>
+        <v>28.58167105505061</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>63.41598302662047</v>
+        <v>63.41598302662096</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.681098148786687</v>
+        <v>6.6810981487866</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.895475995913012</v>
+        <v>4.895475995912935</v>
       </c>
       <c r="E7">
-        <v>38.90749354358655</v>
+        <v>38.90749354358716</v>
       </c>
       <c r="F7">
-        <v>37.35309633367269</v>
+        <v>37.35309633367241</v>
       </c>
       <c r="G7">
-        <v>29.7142178648895</v>
+        <v>29.71421786488925</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65.24017564473777</v>
+        <v>65.24017564473834</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.161313217914869</v>
+        <v>7.161313217914754</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.907097834506323</v>
+        <v>5.907097834506356</v>
       </c>
       <c r="E8">
-        <v>43.68025774984512</v>
+        <v>43.68025774984589</v>
       </c>
       <c r="F8">
-        <v>43.67192746329371</v>
+        <v>43.67192746329347</v>
       </c>
       <c r="G8">
-        <v>34.89183491214847</v>
+        <v>34.89183491214825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>73.21038142037618</v>
+        <v>73.21038142037699</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.077819996699368</v>
+        <v>8.077819996699352</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.381459890982164</v>
+        <v>8.381459890982226</v>
       </c>
       <c r="E9">
-        <v>53.64769170898013</v>
+        <v>53.64769170898028</v>
       </c>
       <c r="F9">
-        <v>58.21353864900591</v>
+        <v>58.21353864900626</v>
       </c>
       <c r="G9">
-        <v>46.85046883949561</v>
+        <v>46.8504688394959</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>89.72847902499782</v>
+        <v>89.72847902499804</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E10">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F10">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G10">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E11">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F11">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G11">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E12">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F12">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G12">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E13">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F13">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G13">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E14">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F14">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G14">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E15">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F15">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G15">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E16">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F16">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G16">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E17">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F17">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G17">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E18">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F18">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G18">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E19">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F19">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G19">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E20">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F20">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G20">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E21">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F21">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G21">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E22">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F22">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G22">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E23">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F23">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G23">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E24">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F24">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G24">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.901600978817772</v>
+        <v>8.901600978817765</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.62899309207956</v>
+        <v>11.62899309207963</v>
       </c>
       <c r="E25">
-        <v>64.36100209221328</v>
+        <v>64.3610020922126</v>
       </c>
       <c r="F25">
-        <v>75.55753269467202</v>
+        <v>75.55753269467193</v>
       </c>
       <c r="G25">
-        <v>61.23930690059979</v>
+        <v>61.23930690059972</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>106.9760492645966</v>
+        <v>106.9760492645958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.289396433887073</v>
+        <v>7.28939643388716</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.20142665005015</v>
+        <v>6.201426650050142</v>
       </c>
       <c r="E2">
-        <v>44.98089777157089</v>
+        <v>44.98089777157153</v>
       </c>
       <c r="F2">
-        <v>45.46793304235028</v>
+        <v>45.46793304235062</v>
       </c>
       <c r="G2">
-        <v>36.36496713551657</v>
+        <v>36.36496713551684</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>75.37767672132394</v>
+        <v>75.37767672132466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.91568081850022</v>
+        <v>6.915680818500221</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.37346844416717</v>
+        <v>5.373468444167047</v>
       </c>
       <c r="E3">
-        <v>41.22480270193837</v>
+        <v>41.22480270193805</v>
       </c>
       <c r="F3">
-        <v>40.36724229575329</v>
+        <v>40.36724229575338</v>
       </c>
       <c r="G3">
-        <v>32.18319949704293</v>
+        <v>32.183199497043</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>69.11284079068868</v>
+        <v>69.11284079068835</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.682389395677199</v>
+        <v>6.682389395676959</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.898033627021528</v>
+        <v>4.898033627021526</v>
       </c>
       <c r="E4">
-        <v>38.92021412618111</v>
+        <v>38.92021412618139</v>
       </c>
       <c r="F4">
-        <v>37.36936124670207</v>
+        <v>37.36936124670201</v>
       </c>
       <c r="G4">
-        <v>29.72753877052186</v>
+        <v>29.72753877052184</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>65.26144657413427</v>
+        <v>65.26144657413452</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586358995397422</v>
+        <v>6.586358995397267</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.709836732739726</v>
+        <v>4.709836732739689</v>
       </c>
       <c r="E5">
-        <v>37.97444868136807</v>
+        <v>37.9744486813687</v>
       </c>
       <c r="F5">
-        <v>36.16861806282677</v>
+        <v>36.16861806282645</v>
       </c>
       <c r="G5">
-        <v>28.74415828565939</v>
+        <v>28.74415828565909</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>63.67964054024831</v>
+        <v>63.67964054024894</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57035622205812</v>
+        <v>6.57035622205809</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.678859495343223</v>
+        <v>4.678859495343172</v>
       </c>
       <c r="E6">
-        <v>37.81684442593411</v>
+        <v>37.81684442593365</v>
       </c>
       <c r="F6">
-        <v>35.9702131459704</v>
+        <v>35.97021314597025</v>
       </c>
       <c r="G6">
-        <v>28.58167105505061</v>
+        <v>28.58167105505047</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>63.41598302662096</v>
+        <v>63.41598302662047</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.6810981487866</v>
+        <v>6.681098148786687</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.895475995912935</v>
+        <v>4.895475995913012</v>
       </c>
       <c r="E7">
-        <v>38.90749354358716</v>
+        <v>38.90749354358655</v>
       </c>
       <c r="F7">
-        <v>37.35309633367241</v>
+        <v>37.35309633367269</v>
       </c>
       <c r="G7">
-        <v>29.71421786488925</v>
+        <v>29.7142178648895</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65.24017564473834</v>
+        <v>65.24017564473777</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.161313217914754</v>
+        <v>7.161313217914869</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.907097834506356</v>
+        <v>5.907097834506323</v>
       </c>
       <c r="E8">
-        <v>43.68025774984589</v>
+        <v>43.68025774984512</v>
       </c>
       <c r="F8">
-        <v>43.67192746329347</v>
+        <v>43.67192746329371</v>
       </c>
       <c r="G8">
-        <v>34.89183491214825</v>
+        <v>34.89183491214847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>73.21038142037699</v>
+        <v>73.21038142037618</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.077819996699352</v>
+        <v>8.077819996699368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.381459890982226</v>
+        <v>8.381459890982164</v>
       </c>
       <c r="E9">
-        <v>53.64769170898028</v>
+        <v>53.64769170898013</v>
       </c>
       <c r="F9">
-        <v>58.21353864900626</v>
+        <v>58.21353864900591</v>
       </c>
       <c r="G9">
-        <v>46.8504688394959</v>
+        <v>46.85046883949561</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>89.72847902499804</v>
+        <v>89.72847902499782</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E10">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F10">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G10">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E11">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F11">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G11">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E12">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F12">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G12">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E13">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F13">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G13">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E14">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F14">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G14">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E15">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F15">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G15">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E16">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F16">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G16">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E17">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F17">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G17">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E18">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F18">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G18">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E19">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F19">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G19">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E20">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F20">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G20">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E21">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F21">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G21">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E22">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F22">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G22">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E23">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F23">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G23">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E24">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F24">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G24">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.901600978817765</v>
+        <v>8.901600978817772</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.62899309207963</v>
+        <v>11.62899309207956</v>
       </c>
       <c r="E25">
-        <v>64.3610020922126</v>
+        <v>64.36100209221328</v>
       </c>
       <c r="F25">
-        <v>75.55753269467193</v>
+        <v>75.55753269467202</v>
       </c>
       <c r="G25">
-        <v>61.23930690059972</v>
+        <v>61.23930690059979</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>106.9760492645958</v>
+        <v>106.9760492645966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.28939643388716</v>
+        <v>7.289342191407499</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.201426650050142</v>
+        <v>6.190648263106</v>
       </c>
       <c r="E2">
-        <v>44.98089777157153</v>
+        <v>44.97865298008886</v>
       </c>
       <c r="F2">
-        <v>45.46793304235062</v>
+        <v>45.41359602880206</v>
       </c>
       <c r="G2">
-        <v>36.36496713551684</v>
+        <v>36.4057802524635</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>35.4793616253611</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>75.37767672132466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>75.36855069014329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.915680818500221</v>
+        <v>6.915647994918739</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.373468444167047</v>
+        <v>5.364509859584957</v>
       </c>
       <c r="E3">
-        <v>41.22480270193805</v>
+        <v>41.22334476287049</v>
       </c>
       <c r="F3">
-        <v>40.36724229575338</v>
+        <v>40.32108271998413</v>
       </c>
       <c r="G3">
-        <v>32.183199497043</v>
+        <v>32.22084900914994</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>31.36950461615126</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>69.11284079068835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>69.10636282018334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.682389395676959</v>
+        <v>6.682366273451207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.898033627021526</v>
+        <v>4.890062515745253</v>
       </c>
       <c r="E4">
-        <v>38.92021412618139</v>
+        <v>38.91907971632523</v>
       </c>
       <c r="F4">
-        <v>37.36936124670201</v>
+        <v>37.32757011578934</v>
       </c>
       <c r="G4">
-        <v>29.72753877052184</v>
+        <v>29.76299318265568</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>28.96695920195745</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>65.26144657413452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>65.25621276956997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586358995397267</v>
+        <v>6.586339243804725</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.709836732739689</v>
+        <v>4.702247590331435</v>
       </c>
       <c r="E5">
-        <v>37.9744486813687</v>
+        <v>37.973421935788</v>
       </c>
       <c r="F5">
-        <v>36.16861806282645</v>
+        <v>36.12850105870282</v>
       </c>
       <c r="G5">
-        <v>28.74415828565909</v>
+        <v>28.77867731910406</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>28.00772766337063</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>63.67964054024894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>63.67485197522102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57035622205809</v>
+        <v>6.570337000771723</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.678859495343172</v>
+        <v>4.671332800820279</v>
       </c>
       <c r="E6">
-        <v>37.81684442593365</v>
+        <v>37.81583440906101</v>
       </c>
       <c r="F6">
-        <v>35.97021314597025</v>
+        <v>35.93036893510433</v>
       </c>
       <c r="G6">
-        <v>28.58167105505047</v>
+        <v>28.6160327367194</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27.849409663686</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>63.41598302662047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>63.41126535692296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.681098148786687</v>
+        <v>6.681075074101868</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.895475995913012</v>
+        <v>4.887510106609444</v>
       </c>
       <c r="E7">
-        <v>38.90749354358655</v>
+        <v>38.90636066875073</v>
       </c>
       <c r="F7">
-        <v>37.35309633367269</v>
+        <v>37.31132815267323</v>
       </c>
       <c r="G7">
-        <v>29.7142178648895</v>
+        <v>29.74965980684427</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>28.95395348021353</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65.24017564473777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>65.2349480619381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.161313217914869</v>
+        <v>7.161267303948965</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.907097834506323</v>
+        <v>5.896983452224799</v>
       </c>
       <c r="E8">
-        <v>43.68025774984512</v>
+        <v>43.6783305235769</v>
       </c>
       <c r="F8">
-        <v>43.67192746329371</v>
+        <v>43.62059102722695</v>
       </c>
       <c r="G8">
-        <v>34.89183491214847</v>
+        <v>34.93162853113822</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>34.02930546679175</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>73.21038142037618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>73.20227510966518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.077819996699368</v>
+        <v>8.077669346562942</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.381459890982164</v>
+        <v>8.364792736082038</v>
       </c>
       <c r="E9">
-        <v>53.64769170898013</v>
+        <v>53.64089211463806</v>
       </c>
       <c r="F9">
-        <v>58.21353864900591</v>
+        <v>58.13203016188828</v>
       </c>
       <c r="G9">
-        <v>46.85046883949561</v>
+        <v>46.89378242920324</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>45.8475168723194</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>89.72847902499782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>89.70771158993084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E10">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F10">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G10">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E11">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F11">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G11">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E12">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F12">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G12">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E13">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F13">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G13">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E14">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F14">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G14">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E15">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F15">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G15">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E16">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F16">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G16">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E17">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F17">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G17">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E18">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F18">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G18">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E19">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F19">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G19">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E20">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F20">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G20">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E21">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F21">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G21">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E22">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F22">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G22">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E23">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F23">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G23">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E24">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F24">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G24">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>106.9760492645966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>106.8925357274702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.901600978817772</v>
+        <v>8.900694190636047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.62899309207956</v>
+        <v>11.59234894547238</v>
       </c>
       <c r="E25">
-        <v>64.36100209221328</v>
+        <v>64.31862507906585</v>
       </c>
       <c r="F25">
-        <v>75.55753269467202</v>
+        <v>75.38212046071021</v>
       </c>
       <c r="G25">
-        <v>61.23930690059979</v>
+        <v>61.23855217957346</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>60.11569014532105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>106.9760492645966</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>106.8925357274702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,635 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>7.289342191407499</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>6.190648263106</v>
+        <v>7.402498244050975</v>
       </c>
       <c r="E2">
-        <v>44.97865298008886</v>
+        <v>6.674368141838386</v>
       </c>
       <c r="F2">
-        <v>45.41359602880206</v>
+        <v>79.77208480407079</v>
       </c>
       <c r="G2">
-        <v>36.4057802524635</v>
+        <v>1.888925321385989</v>
       </c>
       <c r="H2">
-        <v>35.4793616253611</v>
-      </c>
-      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>75.36855069014329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>7.373806964368675</v>
+      </c>
+      <c r="O2">
+        <v>62.17883228452394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6.915647994918739</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>5.364509859584957</v>
+        <v>6.858439315007726</v>
       </c>
       <c r="E3">
-        <v>41.22334476287049</v>
+        <v>6.584303699712736</v>
       </c>
       <c r="F3">
-        <v>40.32108271998413</v>
+        <v>73.14857926274045</v>
       </c>
       <c r="G3">
-        <v>32.22084900914994</v>
+        <v>1.928232960942369</v>
       </c>
       <c r="H3">
-        <v>31.36950461615126</v>
-      </c>
-      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>69.10636282018334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>7.089510096088169</v>
+      </c>
+      <c r="O3">
+        <v>56.90359891601412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>6.682366273451207</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>4.890062515745253</v>
+        <v>6.529207539556089</v>
       </c>
       <c r="E4">
-        <v>38.91907971632523</v>
+        <v>6.539842330095682</v>
       </c>
       <c r="F4">
-        <v>37.32757011578934</v>
+        <v>69.12637117222305</v>
       </c>
       <c r="G4">
-        <v>29.76299318265568</v>
+        <v>1.951420712165362</v>
       </c>
       <c r="H4">
-        <v>28.96695920195745</v>
-      </c>
-      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>65.25621276956997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.930625327801786</v>
+      </c>
+      <c r="O4">
+        <v>53.69107898492225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>6.586339243804725</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>4.702247590331435</v>
+        <v>6.395361299177677</v>
       </c>
       <c r="E5">
-        <v>37.973421935788</v>
+        <v>6.524062241392315</v>
       </c>
       <c r="F5">
-        <v>36.12850105870282</v>
+        <v>67.56077756968151</v>
       </c>
       <c r="G5">
-        <v>28.77867731910406</v>
+        <v>1.960720769119812</v>
       </c>
       <c r="H5">
-        <v>28.00772766337063</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>63.67485197522102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6.869177116812473</v>
+      </c>
+      <c r="O5">
+        <v>52.38116397892079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6.570337000771723</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>4.671332800820279</v>
+        <v>6.373134800988074</v>
       </c>
       <c r="E6">
-        <v>37.81583440906101</v>
+        <v>6.521573783412149</v>
       </c>
       <c r="F6">
-        <v>35.93036893510433</v>
+        <v>67.30198898224377</v>
       </c>
       <c r="G6">
-        <v>28.6160327367194</v>
+        <v>1.962258140714031</v>
       </c>
       <c r="H6">
-        <v>27.849409663686</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>63.41126535692296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6.859157751970134</v>
+      </c>
+      <c r="O6">
+        <v>52.16343549169618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.681075074101868</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>4.887510106609444</v>
+        <v>6.527402119893519</v>
       </c>
       <c r="E7">
-        <v>38.90636066875073</v>
+        <v>6.539620483402484</v>
       </c>
       <c r="F7">
-        <v>37.31132815267323</v>
+        <v>69.10429477498036</v>
       </c>
       <c r="G7">
-        <v>29.74965980684427</v>
+        <v>1.951546641477903</v>
       </c>
       <c r="H7">
-        <v>28.95395348021353</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>65.2349480619381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6.92978396639115</v>
+      </c>
+      <c r="O7">
+        <v>53.67342419511104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>7.161267303948965</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>5.896983452224799</v>
+        <v>7.213258142046949</v>
       </c>
       <c r="E8">
-        <v>43.6783305235769</v>
+        <v>6.640793239001617</v>
       </c>
       <c r="F8">
-        <v>43.62059102722695</v>
+        <v>77.4722972926612</v>
       </c>
       <c r="G8">
-        <v>34.93162853113822</v>
+        <v>1.902738677401569</v>
       </c>
       <c r="H8">
-        <v>34.02930546679175</v>
-      </c>
-      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>73.20227510966518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7.272067810410782</v>
+      </c>
+      <c r="O8">
+        <v>60.34901659102567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>8.077669346562942</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>8.364792736082038</v>
+        <v>8.664962411298124</v>
       </c>
       <c r="E9">
-        <v>53.64089211463806</v>
+        <v>6.952409825375833</v>
       </c>
       <c r="F9">
-        <v>58.13203016188828</v>
+        <v>94.95297923406088</v>
       </c>
       <c r="G9">
-        <v>46.89378242920324</v>
+        <v>1.792947991798151</v>
       </c>
       <c r="H9">
-        <v>45.8475168723194</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>89.70771158993084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8.115743667403569</v>
+      </c>
+      <c r="O9">
+        <v>74.22266106534946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>11.59234894547238</v>
+        <v>10.01753836406142</v>
       </c>
       <c r="E10">
-        <v>64.31862507906585</v>
+        <v>7.33086200234995</v>
       </c>
       <c r="F10">
-        <v>75.38212046071021</v>
+        <v>110.753399253762</v>
       </c>
       <c r="G10">
-        <v>61.23855217957346</v>
+        <v>1.683228974522804</v>
       </c>
       <c r="H10">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9.376748830937141</v>
+      </c>
+      <c r="O10">
+        <v>86.72160915421011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>11.59234894547238</v>
+        <v>10.90589584516751</v>
       </c>
       <c r="E11">
-        <v>64.31862507906585</v>
+        <v>7.606233788383834</v>
       </c>
       <c r="F11">
-        <v>75.38212046071021</v>
+        <v>120.7463481540333</v>
       </c>
       <c r="G11">
-        <v>61.23855217957346</v>
+        <v>1.60801306602611</v>
       </c>
       <c r="H11">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10.20170242523446</v>
+      </c>
+      <c r="O11">
+        <v>94.62128358126314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>11.59234894547238</v>
+        <v>11.39559578515147</v>
       </c>
       <c r="E12">
-        <v>64.31862507906585</v>
+        <v>7.761646801942598</v>
       </c>
       <c r="F12">
-        <v>75.38212046071021</v>
+        <v>126.0844198553612</v>
       </c>
       <c r="G12">
-        <v>61.23855217957346</v>
+        <v>1.565801687214752</v>
       </c>
       <c r="H12">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10.63884450991051</v>
+      </c>
+      <c r="O12">
+        <v>98.84263965221514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>11.59234894547238</v>
+        <v>11.27490168260974</v>
       </c>
       <c r="E13">
-        <v>64.31862507906585</v>
+        <v>7.723282320035642</v>
       </c>
       <c r="F13">
-        <v>75.38212046071021</v>
+        <v>124.7814169313012</v>
       </c>
       <c r="G13">
-        <v>61.23855217957346</v>
+        <v>1.576242065397962</v>
       </c>
       <c r="H13">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.53237875192843</v>
+      </c>
+      <c r="O13">
+        <v>97.81202698021734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>11.59234894547238</v>
+        <v>10.94079067518066</v>
       </c>
       <c r="E14">
-        <v>64.31862507906585</v>
+        <v>7.617269309620554</v>
       </c>
       <c r="F14">
-        <v>75.38212046071021</v>
+        <v>121.131094403572</v>
       </c>
       <c r="G14">
-        <v>61.23855217957346</v>
+        <v>1.605019587502222</v>
       </c>
       <c r="H14">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10.2332948599206</v>
+      </c>
+      <c r="O14">
+        <v>94.92548071388384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>11.59234894547238</v>
+        <v>10.76545793682736</v>
       </c>
       <c r="E15">
-        <v>64.31862507906585</v>
+        <v>7.56193030634213</v>
       </c>
       <c r="F15">
-        <v>75.38212046071021</v>
+        <v>119.1915143888973</v>
       </c>
       <c r="G15">
-        <v>61.23855217957346</v>
+        <v>1.620034628458401</v>
       </c>
       <c r="H15">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10.07390068044203</v>
+      </c>
+      <c r="O15">
+        <v>93.39203153530946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>11.59234894547238</v>
+        <v>9.969211195941888</v>
       </c>
       <c r="E16">
-        <v>64.31862507906585</v>
+        <v>7.316322754357131</v>
       </c>
       <c r="F16">
-        <v>75.38212046071021</v>
+        <v>110.1998471402742</v>
       </c>
       <c r="G16">
-        <v>61.23855217957346</v>
+        <v>1.687257664279706</v>
       </c>
       <c r="H16">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9.330805879538371</v>
+      </c>
+      <c r="O16">
+        <v>86.28399995624284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>11.59234894547238</v>
+        <v>9.574685880816981</v>
       </c>
       <c r="E17">
-        <v>64.31862507906585</v>
+        <v>7.200012779606498</v>
       </c>
       <c r="F17">
-        <v>75.38212046071021</v>
+        <v>105.6474235131494</v>
       </c>
       <c r="G17">
-        <v>61.23855217957346</v>
+        <v>1.719865159645452</v>
       </c>
       <c r="H17">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8.95198193737458</v>
+      </c>
+      <c r="O17">
+        <v>82.68462387486682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>11.59234894547238</v>
+        <v>9.366305689363269</v>
       </c>
       <c r="E18">
-        <v>64.31862507906585</v>
+        <v>7.14052307566273</v>
       </c>
       <c r="F18">
-        <v>75.38212046071021</v>
+        <v>103.2204693907693</v>
       </c>
       <c r="G18">
-        <v>61.23855217957346</v>
+        <v>1.736874594229466</v>
       </c>
       <c r="H18">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8.749290838109296</v>
+      </c>
+      <c r="O18">
+        <v>80.76525836673029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>11.59234894547238</v>
+        <v>9.298170870193314</v>
       </c>
       <c r="E19">
-        <v>64.31862507906585</v>
+        <v>7.121397570105644</v>
       </c>
       <c r="F19">
-        <v>75.38212046071021</v>
+        <v>102.4237862141244</v>
       </c>
       <c r="G19">
-        <v>61.23855217957346</v>
+        <v>1.742402727751745</v>
       </c>
       <c r="H19">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8.682639846529751</v>
+      </c>
+      <c r="O19">
+        <v>80.13509993113345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>11.59234894547238</v>
+        <v>9.61455753674659</v>
       </c>
       <c r="E20">
-        <v>64.31862507906585</v>
+        <v>7.21155838585902</v>
       </c>
       <c r="F20">
-        <v>75.38212046071021</v>
+        <v>106.1100960420818</v>
       </c>
       <c r="G20">
-        <v>61.23855217957346</v>
+        <v>1.716593318915962</v>
       </c>
       <c r="H20">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8.990563990034104</v>
+      </c>
+      <c r="O20">
+        <v>83.0504847196321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
-        <v>11.59234894547238</v>
+        <v>11.03162877820159</v>
       </c>
       <c r="E21">
-        <v>64.31862507906585</v>
+        <v>7.646038339162963</v>
       </c>
       <c r="F21">
-        <v>75.38212046071021</v>
+        <v>122.1296282078208</v>
       </c>
       <c r="G21">
-        <v>61.23855217957346</v>
+        <v>1.597215603929595</v>
       </c>
       <c r="H21">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10.31522637056425</v>
+      </c>
+      <c r="O21">
+        <v>95.71500131529291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>11.59234894547238</v>
+        <v>11.03162877820159</v>
       </c>
       <c r="E22">
-        <v>64.31862507906585</v>
+        <v>7.646038339162963</v>
       </c>
       <c r="F22">
-        <v>75.38212046071021</v>
+        <v>122.1296282078208</v>
       </c>
       <c r="G22">
-        <v>61.23855217957346</v>
+        <v>1.597215603929595</v>
       </c>
       <c r="H22">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10.31522637056425</v>
+      </c>
+      <c r="O22">
+        <v>95.71500131529291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
-        <v>11.59234894547238</v>
+        <v>11.86825627370857</v>
       </c>
       <c r="E23">
-        <v>64.31862507906585</v>
+        <v>7.911373752180277</v>
       </c>
       <c r="F23">
-        <v>75.38212046071021</v>
+        <v>131.1002240669006</v>
       </c>
       <c r="G23">
-        <v>61.23855217957346</v>
+        <v>1.524756523769268</v>
       </c>
       <c r="H23">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11.04713489234265</v>
+      </c>
+      <c r="O23">
+        <v>102.8115972531143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>11.59234894547238</v>
+        <v>9.596477155415894</v>
       </c>
       <c r="E24">
-        <v>64.31862507906585</v>
+        <v>7.206316631697864</v>
       </c>
       <c r="F24">
-        <v>75.38212046071021</v>
+        <v>105.9003599322263</v>
       </c>
       <c r="G24">
-        <v>61.23855217957346</v>
+        <v>1.718077657925943</v>
       </c>
       <c r="H24">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>106.8925357274702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8.973076501322289</v>
+      </c>
+      <c r="O24">
+        <v>82.88463637001826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>8.900694190636047</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
-        <v>11.59234894547238</v>
+        <v>8.247594929436858</v>
       </c>
       <c r="E25">
-        <v>64.31862507906585</v>
+        <v>6.850918316657002</v>
       </c>
       <c r="F25">
-        <v>75.38212046071021</v>
+        <v>89.97070552802531</v>
       </c>
       <c r="G25">
-        <v>61.23855217957346</v>
+        <v>1.825404708733707</v>
       </c>
       <c r="H25">
-        <v>60.11569014532105</v>
-      </c>
-      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>106.8925357274702</v>
+        <v>7.8598310232272</v>
+      </c>
+      <c r="O25">
+        <v>70.27533740571337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -420,624 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>10.44732479318493</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>7.402498244050975</v>
+        <v>4.503133787316401</v>
       </c>
       <c r="E2">
-        <v>6.674368141838386</v>
+        <v>10.92617534932297</v>
       </c>
       <c r="F2">
-        <v>79.77208480407079</v>
+        <v>24.75307861331525</v>
       </c>
       <c r="G2">
-        <v>1.888925321385989</v>
+        <v>34.54449574614305</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.31746161160082</v>
+      </c>
+      <c r="I2">
+        <v>19.73270340926445</v>
       </c>
       <c r="J2">
-        <v>7.373806964368675</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>14.69875946471679</v>
+      </c>
+      <c r="L2">
+        <v>6.517595846390475</v>
+      </c>
+      <c r="M2">
+        <v>9.369991884638745</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>62.17883228452394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>9.911785688553303</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>6.858439315007726</v>
+        <v>4.490834034664132</v>
       </c>
       <c r="E3">
-        <v>6.584303699712736</v>
+        <v>10.92801187264311</v>
       </c>
       <c r="F3">
-        <v>73.14857926274045</v>
+        <v>24.05804874351269</v>
       </c>
       <c r="G3">
-        <v>1.928232960942369</v>
+        <v>33.47550023222279</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.24383753072151</v>
+      </c>
+      <c r="I3">
+        <v>19.9106323462703</v>
       </c>
       <c r="J3">
-        <v>7.089510096088169</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>13.8871581773588</v>
+      </c>
+      <c r="L3">
+        <v>6.325767470792977</v>
+      </c>
+      <c r="M3">
+        <v>9.103807200485811</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>56.90359891601412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>9.572014512418844</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>6.529207539556089</v>
+        <v>4.483171788791726</v>
       </c>
       <c r="E4">
-        <v>6.539842330095682</v>
+        <v>10.93053481313471</v>
       </c>
       <c r="F4">
-        <v>69.12637117222305</v>
+        <v>23.64407621495107</v>
       </c>
       <c r="G4">
-        <v>1.951420712165362</v>
+        <v>32.8380596970196</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.20673518020801</v>
+      </c>
+      <c r="I4">
+        <v>20.0313278158373</v>
       </c>
       <c r="J4">
-        <v>6.930625327801786</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>13.3648933659512</v>
+      </c>
+      <c r="L4">
+        <v>6.208545384898768</v>
+      </c>
+      <c r="M4">
+        <v>8.940574483172618</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>53.69107898492225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>9.430967427850097</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>6.395361299177677</v>
+        <v>4.480023614088021</v>
       </c>
       <c r="E5">
-        <v>6.524062241392315</v>
+        <v>10.93190051876551</v>
       </c>
       <c r="F5">
-        <v>67.56077756968151</v>
+        <v>23.47873912368304</v>
       </c>
       <c r="G5">
-        <v>1.960720769119812</v>
+        <v>32.58329734613918</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.19359163229474</v>
+      </c>
+      <c r="I5">
+        <v>20.08328780265754</v>
       </c>
       <c r="J5">
-        <v>6.869177116812473</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13.14610718791668</v>
+      </c>
+      <c r="L5">
+        <v>6.160978087887224</v>
+      </c>
+      <c r="M5">
+        <v>8.874195961257115</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>52.38116397892079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>9.407395808093689</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>6.373134800988074</v>
+        <v>4.479499365435263</v>
       </c>
       <c r="E6">
-        <v>6.521573783412149</v>
+        <v>10.93214731471771</v>
       </c>
       <c r="F6">
-        <v>67.30198898224377</v>
+        <v>23.45149217514064</v>
       </c>
       <c r="G6">
-        <v>1.962258140714031</v>
+        <v>32.54130318035861</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.19152665613907</v>
+      </c>
+      <c r="I6">
+        <v>20.09208048013555</v>
       </c>
       <c r="J6">
-        <v>6.859157751970134</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13.10942021513556</v>
+      </c>
+      <c r="L6">
+        <v>6.153093580067457</v>
+      </c>
+      <c r="M6">
+        <v>8.863184990753975</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>52.16343549169618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>9.570122538531091</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>6.527402119893519</v>
+        <v>4.483129433027041</v>
       </c>
       <c r="E7">
-        <v>6.539620483402484</v>
+        <v>10.93055188140056</v>
       </c>
       <c r="F7">
-        <v>69.10429477498036</v>
+        <v>23.64183262502758</v>
       </c>
       <c r="G7">
-        <v>1.951546641477903</v>
+        <v>32.83460332325201</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.20655000410207</v>
+      </c>
+      <c r="I7">
+        <v>20.03201745897644</v>
       </c>
       <c r="J7">
-        <v>6.92978396639115</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>13.36196677049358</v>
+      </c>
+      <c r="L7">
+        <v>6.207902977022091</v>
+      </c>
+      <c r="M7">
+        <v>8.939678591736744</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>53.67342419511104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>10.26503333944022</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>7.213258142046949</v>
+        <v>4.498916840248364</v>
       </c>
       <c r="E8">
-        <v>6.640793239001617</v>
+        <v>10.9265106507282</v>
       </c>
       <c r="F8">
-        <v>77.4722972926612</v>
+        <v>24.51086871470038</v>
       </c>
       <c r="G8">
-        <v>1.902738677401569</v>
+        <v>34.17212204391631</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.29035778694697</v>
+      </c>
+      <c r="I8">
+        <v>19.79161378637218</v>
       </c>
       <c r="J8">
-        <v>7.272067810410782</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>14.42391713491274</v>
+      </c>
+      <c r="L8">
+        <v>6.451372191924287</v>
+      </c>
+      <c r="M8">
+        <v>9.278220252424964</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>60.34901659102567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>11.53505836976744</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>8.664962411298124</v>
+        <v>4.528920410551692</v>
       </c>
       <c r="E9">
-        <v>6.952409825375833</v>
+        <v>10.93031706107684</v>
       </c>
       <c r="F9">
-        <v>94.95297923406088</v>
+        <v>26.31007818329534</v>
       </c>
       <c r="G9">
-        <v>1.792947991798151</v>
+        <v>36.93490522863813</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.52165483265659</v>
+      </c>
+      <c r="I9">
+        <v>19.41596357211197</v>
       </c>
       <c r="J9">
-        <v>8.115743667403569</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>16.31490886595677</v>
+      </c>
+      <c r="L9">
+        <v>6.9308066501557</v>
+      </c>
+      <c r="M9">
+        <v>9.940122372827593</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>74.22266106534946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>12.40561655893519</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>10.01753836406142</v>
+        <v>4.550278265084989</v>
       </c>
       <c r="E10">
-        <v>7.33086200234995</v>
+        <v>10.94128742559004</v>
       </c>
       <c r="F10">
-        <v>110.753399253762</v>
+        <v>27.68200847957208</v>
       </c>
       <c r="G10">
-        <v>1.683228974522804</v>
+        <v>39.03754571705139</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.73591183358147</v>
+      </c>
+      <c r="I10">
+        <v>19.20575968566494</v>
       </c>
       <c r="J10">
-        <v>9.376748830937141</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>17.58676698148805</v>
+      </c>
+      <c r="L10">
+        <v>7.281312740645203</v>
+      </c>
+      <c r="M10">
+        <v>10.42084896324135</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>86.72160915421011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>12.78724342344893</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>10.90589584516751</v>
+        <v>4.559825291986235</v>
       </c>
       <c r="E11">
-        <v>7.606233788383834</v>
+        <v>10.94831257016382</v>
       </c>
       <c r="F11">
-        <v>120.7463481540333</v>
+        <v>28.31562145864019</v>
       </c>
       <c r="G11">
-        <v>1.60801306602611</v>
+        <v>40.00780072425529</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.84372719465487</v>
+      </c>
+      <c r="I11">
+        <v>19.12620113049528</v>
       </c>
       <c r="J11">
-        <v>10.20170242523446</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>18.1400391408491</v>
+      </c>
+      <c r="L11">
+        <v>7.439878223182136</v>
+      </c>
+      <c r="M11">
+        <v>10.63755696532344</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>94.62128358126314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>12.92963955201471</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>11.39559578515147</v>
+        <v>4.563414629160401</v>
       </c>
       <c r="E12">
-        <v>7.761646801942598</v>
+        <v>10.95129001750771</v>
       </c>
       <c r="F12">
-        <v>126.0844198553612</v>
+        <v>28.5568327657142</v>
       </c>
       <c r="G12">
-        <v>1.565801687214752</v>
+        <v>40.37705906995864</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.88609953915896</v>
+      </c>
+      <c r="I12">
+        <v>19.09854620999896</v>
       </c>
       <c r="J12">
-        <v>10.63884450991051</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>18.34594117245685</v>
+      </c>
+      <c r="L12">
+        <v>7.499761389938731</v>
+      </c>
+      <c r="M12">
+        <v>10.71928003765233</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>98.84263965221514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>12.89906677860186</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>11.27490168260974</v>
+        <v>4.562642778997696</v>
       </c>
       <c r="E13">
-        <v>7.723282320035642</v>
+        <v>10.95063424227152</v>
       </c>
       <c r="F13">
-        <v>124.7814169313012</v>
+        <v>28.50482805726033</v>
       </c>
       <c r="G13">
-        <v>1.576242065397962</v>
+        <v>40.29745234613712</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.87690427764902</v>
+      </c>
+      <c r="I13">
+        <v>19.10438953480112</v>
       </c>
       <c r="J13">
-        <v>10.53237875192843</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>18.30175646595627</v>
+      </c>
+      <c r="L13">
+        <v>7.486872183987985</v>
+      </c>
+      <c r="M13">
+        <v>10.70169540491263</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>97.81202698021734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>12.79900109861609</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>10.94079067518066</v>
+        <v>4.560121117395044</v>
       </c>
       <c r="E14">
-        <v>7.617269309620554</v>
+        <v>10.94855101884351</v>
       </c>
       <c r="F14">
-        <v>121.131094403572</v>
+        <v>28.33544092944801</v>
       </c>
       <c r="G14">
-        <v>1.605019587502222</v>
+        <v>40.03814349171844</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.84718190345521</v>
+      </c>
+      <c r="I14">
+        <v>19.12387542717935</v>
       </c>
       <c r="J14">
-        <v>10.2332948599206</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>18.15705097142696</v>
+      </c>
+      <c r="L14">
+        <v>7.444808276479247</v>
+      </c>
+      <c r="M14">
+        <v>10.64428746375791</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>94.92548071388384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>12.73743104373856</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>10.76545793682736</v>
+        <v>4.558573104703967</v>
       </c>
       <c r="E15">
-        <v>7.56193030634213</v>
+        <v>10.94731706830872</v>
       </c>
       <c r="F15">
-        <v>119.1915143888973</v>
+        <v>28.231850252292</v>
       </c>
       <c r="G15">
-        <v>1.620034628458401</v>
+        <v>39.87954620763045</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.82917898147294</v>
+      </c>
+      <c r="I15">
+        <v>19.13613806043116</v>
       </c>
       <c r="J15">
-        <v>10.07390068044203</v>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>18.06794558270585</v>
+      </c>
+      <c r="L15">
+        <v>7.419020863582489</v>
+      </c>
+      <c r="M15">
+        <v>10.60907772444265</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>93.39203153530946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>12.38038224727191</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>9.969211195941888</v>
+        <v>4.549650805645506</v>
       </c>
       <c r="E16">
-        <v>7.316322754357131</v>
+        <v>10.94087129785836</v>
       </c>
       <c r="F16">
-        <v>110.1998471402742</v>
+        <v>27.64078339281729</v>
       </c>
       <c r="G16">
-        <v>1.687257664279706</v>
+        <v>38.97440162033355</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.72907895733162</v>
+      </c>
+      <c r="I16">
+        <v>19.21129587737305</v>
       </c>
       <c r="J16">
-        <v>9.330805879538371</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>17.55010233472042</v>
+      </c>
+      <c r="L16">
+        <v>7.270929203891003</v>
+      </c>
+      <c r="M16">
+        <v>10.40664189240058</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>86.28399995624284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>12.15761853484845</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>9.574685880816981</v>
+        <v>4.544132839535461</v>
       </c>
       <c r="E17">
-        <v>7.200012779606498</v>
+        <v>10.93745479085687</v>
       </c>
       <c r="F17">
-        <v>105.6474235131494</v>
+        <v>27.28054671423174</v>
       </c>
       <c r="G17">
-        <v>1.719865159645452</v>
+        <v>38.42253892225433</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.67036197939687</v>
+      </c>
+      <c r="I17">
+        <v>19.26162896264055</v>
       </c>
       <c r="J17">
-        <v>8.95198193737458</v>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>17.22595792468515</v>
+      </c>
+      <c r="L17">
+        <v>7.179826786764015</v>
+      </c>
+      <c r="M17">
+        <v>10.28190579882324</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>82.68462387486682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>12.02813764947053</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>9.366305689363269</v>
+        <v>4.540943259122377</v>
       </c>
       <c r="E18">
-        <v>7.14052307566273</v>
+        <v>10.93567958965137</v>
       </c>
       <c r="F18">
-        <v>103.2204693907693</v>
+        <v>27.07424783625917</v>
       </c>
       <c r="G18">
-        <v>1.736874594229466</v>
+        <v>38.10642218568561</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.63756024878434</v>
+      </c>
+      <c r="I18">
+        <v>19.29208087298393</v>
       </c>
       <c r="J18">
-        <v>8.749290838109296</v>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>17.03713453708202</v>
+      </c>
+      <c r="L18">
+        <v>7.127345833310524</v>
+      </c>
+      <c r="M18">
+        <v>10.20997760947168</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>80.76525836673029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>11.9840669686479</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>9.298170870193314</v>
+        <v>4.539860661272268</v>
       </c>
       <c r="E19">
-        <v>7.121397570105644</v>
+        <v>10.93511044504198</v>
       </c>
       <c r="F19">
-        <v>102.4237862141244</v>
+        <v>27.00455632050924</v>
       </c>
       <c r="G19">
-        <v>1.742402727751745</v>
+        <v>37.999618542801</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.62661913074026</v>
+      </c>
+      <c r="I19">
+        <v>19.30264452291954</v>
       </c>
       <c r="J19">
-        <v>8.682639846529751</v>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>16.97279205079989</v>
+      </c>
+      <c r="L19">
+        <v>7.10956391228205</v>
+      </c>
+      <c r="M19">
+        <v>10.18559429927849</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>80.13509993113345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>12.18147254803075</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>9.61455753674659</v>
+        <v>4.54472188309017</v>
       </c>
       <c r="E20">
-        <v>7.21155838585902</v>
+        <v>10.93779866235138</v>
       </c>
       <c r="F20">
-        <v>106.1100960420818</v>
+        <v>27.31880215202925</v>
       </c>
       <c r="G20">
-        <v>1.716593318915962</v>
+        <v>38.48115219802033</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.67651162318684</v>
+      </c>
+      <c r="I20">
+        <v>19.25611436666429</v>
       </c>
       <c r="J20">
-        <v>8.990563990034104</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>17.26071022909829</v>
+      </c>
+      <c r="L20">
+        <v>7.189533480739748</v>
+      </c>
+      <c r="M20">
+        <v>10.29520356501972</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>83.0504847196321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>12.82845059150636</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>11.03162877820159</v>
+        <v>4.560862506524797</v>
       </c>
       <c r="E21">
-        <v>7.646038339162963</v>
+        <v>10.94915409383841</v>
       </c>
       <c r="F21">
-        <v>122.1296282078208</v>
+        <v>28.38516002244301</v>
       </c>
       <c r="G21">
-        <v>1.597215603929595</v>
+        <v>40.11425960110329</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.85586970167414</v>
+      </c>
+      <c r="I21">
+        <v>19.11808350398142</v>
       </c>
       <c r="J21">
-        <v>10.31522637056425</v>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>18.19965217417236</v>
+      </c>
+      <c r="L21">
+        <v>7.457168116003173</v>
+      </c>
+      <c r="M21">
+        <v>10.66115918217963</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>95.71500131529291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>13.2389331286374</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>11.03162877820159</v>
+        <v>4.571259587235879</v>
       </c>
       <c r="E22">
-        <v>7.646038339162963</v>
+        <v>10.95843780214441</v>
       </c>
       <c r="F22">
-        <v>122.1296282078208</v>
+        <v>29.08949851863084</v>
       </c>
       <c r="G22">
-        <v>1.597215603929595</v>
+        <v>41.19230633468813</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.98212252632917</v>
+      </c>
+      <c r="I22">
+        <v>19.04236575568201</v>
       </c>
       <c r="J22">
-        <v>10.31522637056425</v>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>18.7922841084115</v>
+      </c>
+      <c r="L22">
+        <v>7.631125969119093</v>
+      </c>
+      <c r="M22">
+        <v>10.89833346251273</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>95.71500131529291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>13.02099320124917</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>11.86825627370857</v>
+        <v>4.565724875029082</v>
       </c>
       <c r="E23">
-        <v>7.911373752180277</v>
+        <v>10.95330362920446</v>
       </c>
       <c r="F23">
-        <v>131.1002240669006</v>
+        <v>28.71292553144173</v>
       </c>
       <c r="G23">
-        <v>1.524756523769268</v>
+        <v>40.61598481103764</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.91389380021562</v>
+      </c>
+      <c r="I23">
+        <v>19.08139496719965</v>
       </c>
       <c r="J23">
-        <v>11.04713489234265</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>18.47789620187282</v>
+      </c>
+      <c r="L23">
+        <v>7.538378940959713</v>
+      </c>
+      <c r="M23">
+        <v>10.77194808952893</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>102.8115972531143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>12.17069254001196</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>9.596477155415894</v>
+        <v>4.544455630035526</v>
       </c>
       <c r="E24">
-        <v>7.206316631697864</v>
+        <v>10.93764261119701</v>
       </c>
       <c r="F24">
-        <v>105.9003599322263</v>
+        <v>27.30150435078534</v>
       </c>
       <c r="G24">
-        <v>1.718077657925943</v>
+        <v>38.45464952314363</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.67372839754202</v>
+      </c>
+      <c r="I24">
+        <v>19.25860280953115</v>
       </c>
       <c r="J24">
-        <v>8.973076501322289</v>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>17.24500640293929</v>
+      </c>
+      <c r="L24">
+        <v>7.185145408557873</v>
+      </c>
+      <c r="M24">
+        <v>10.2891923126366</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>82.88463637001826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>11.20211566770107</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>8.247594929436858</v>
+        <v>4.520916900906428</v>
       </c>
       <c r="E25">
-        <v>6.850918316657002</v>
+        <v>10.927932430031</v>
       </c>
       <c r="F25">
-        <v>89.97070552802531</v>
+        <v>25.8140252752025</v>
       </c>
       <c r="G25">
-        <v>1.825404708733707</v>
+        <v>36.17388772422028</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.45154610256326</v>
+      </c>
+      <c r="I25">
+        <v>19.50660331240578</v>
       </c>
       <c r="J25">
-        <v>7.8598310232272</v>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>15.8239826145846</v>
+      </c>
+      <c r="L25">
+        <v>6.801217830829802</v>
+      </c>
+      <c r="M25">
+        <v>9.761749413907086</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>70.27533740571337</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.44732479318493</v>
+        <v>12.7943689804753</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.503133787316401</v>
+        <v>5.776676400080993</v>
       </c>
       <c r="E2">
-        <v>10.92617534932297</v>
+        <v>15.90878481530115</v>
       </c>
       <c r="F2">
-        <v>24.75307861331525</v>
+        <v>29.69623103066452</v>
       </c>
       <c r="G2">
-        <v>34.54449574614305</v>
+        <v>38.31266637593834</v>
       </c>
       <c r="H2">
-        <v>11.31746161160082</v>
+        <v>16.50102973411032</v>
       </c>
       <c r="I2">
-        <v>19.73270340926445</v>
+        <v>29.1126961738474</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.69875946471679</v>
+        <v>9.625368628760203</v>
       </c>
       <c r="L2">
-        <v>6.517595846390475</v>
+        <v>9.445300538166702</v>
       </c>
       <c r="M2">
-        <v>9.369991884638745</v>
+        <v>14.24889270605433</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.911785688553303</v>
+        <v>12.70648831570122</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.490834034664132</v>
+        <v>5.767609287115135</v>
       </c>
       <c r="E3">
-        <v>10.92801187264311</v>
+        <v>15.915714239621</v>
       </c>
       <c r="F3">
-        <v>24.05804874351269</v>
+        <v>29.64031569518267</v>
       </c>
       <c r="G3">
-        <v>33.47550023222279</v>
+        <v>38.18820906881495</v>
       </c>
       <c r="H3">
-        <v>11.24383753072151</v>
+        <v>16.53087260967802</v>
       </c>
       <c r="I3">
-        <v>19.9106323462703</v>
+        <v>29.20698031104261</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.8871581773588</v>
+        <v>9.221443738200657</v>
       </c>
       <c r="L3">
-        <v>6.325767470792977</v>
+        <v>9.433834817097527</v>
       </c>
       <c r="M3">
-        <v>9.103807200485811</v>
+        <v>14.23412268442984</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.572014512418844</v>
+        <v>12.65461005694017</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.483171788791726</v>
+        <v>5.761935856030408</v>
       </c>
       <c r="E4">
-        <v>10.93053481313471</v>
+        <v>15.92042833643783</v>
       </c>
       <c r="F4">
-        <v>23.64407621495107</v>
+        <v>29.61401989496536</v>
       </c>
       <c r="G4">
-        <v>32.8380596970196</v>
+        <v>38.12359773278132</v>
       </c>
       <c r="H4">
-        <v>11.20673518020801</v>
+        <v>16.55228940541043</v>
       </c>
       <c r="I4">
-        <v>20.0313278158373</v>
+        <v>29.26940430333186</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.3648933659512</v>
+        <v>8.962009493156513</v>
       </c>
       <c r="L4">
-        <v>6.208545384898768</v>
+        <v>9.428403566259053</v>
       </c>
       <c r="M4">
-        <v>8.940574483172618</v>
+        <v>14.22718692161551</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.430967427850097</v>
+        <v>12.63401162208268</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.480023614088021</v>
+        <v>5.759597547638085</v>
       </c>
       <c r="E5">
-        <v>10.93190051876551</v>
+        <v>15.92246507631469</v>
       </c>
       <c r="F5">
-        <v>23.47873912368304</v>
+        <v>29.60533096756712</v>
       </c>
       <c r="G5">
-        <v>32.58329734613918</v>
+        <v>38.10025298203777</v>
       </c>
       <c r="H5">
-        <v>11.19359163229474</v>
+        <v>16.56179347173277</v>
       </c>
       <c r="I5">
-        <v>20.08328780265754</v>
+        <v>29.29598183880119</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.14610718791668</v>
+        <v>8.853495034143169</v>
       </c>
       <c r="L5">
-        <v>6.160978087887224</v>
+        <v>9.426596786864835</v>
       </c>
       <c r="M5">
-        <v>8.874195961257115</v>
+        <v>14.22489988826488</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.407395808093689</v>
+        <v>12.63062456839261</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.479499365435263</v>
+        <v>5.759207693148831</v>
       </c>
       <c r="E6">
-        <v>10.93214731471771</v>
+        <v>15.92281026940321</v>
       </c>
       <c r="F6">
-        <v>23.45149217514064</v>
+        <v>29.6040107276624</v>
       </c>
       <c r="G6">
-        <v>32.54130318035861</v>
+        <v>38.09655727626648</v>
       </c>
       <c r="H6">
-        <v>11.19152665613907</v>
+        <v>16.56341847702274</v>
       </c>
       <c r="I6">
-        <v>20.09208048013555</v>
+        <v>29.30046380759384</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.10942021513556</v>
+        <v>8.835310163010602</v>
       </c>
       <c r="L6">
-        <v>6.153093580067457</v>
+        <v>9.42632137670293</v>
       </c>
       <c r="M6">
-        <v>8.863184990753975</v>
+        <v>14.22455278447781</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.570122538531091</v>
+        <v>12.65433003852984</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.483129433027041</v>
+        <v>5.76190442696256</v>
       </c>
       <c r="E7">
-        <v>10.93055188140056</v>
+        <v>15.92045533585719</v>
       </c>
       <c r="F7">
-        <v>23.64183262502758</v>
+        <v>29.61389450018775</v>
       </c>
       <c r="G7">
-        <v>32.83460332325201</v>
+        <v>38.12327079334669</v>
       </c>
       <c r="H7">
-        <v>11.20655000410207</v>
+        <v>16.55241443814464</v>
       </c>
       <c r="I7">
-        <v>20.03201745897644</v>
+        <v>29.26975812535949</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.36196677049358</v>
+        <v>8.960557223852739</v>
       </c>
       <c r="L7">
-        <v>6.207902977022091</v>
+        <v>9.428377551088856</v>
       </c>
       <c r="M7">
-        <v>8.939678591736744</v>
+        <v>14.22715389038403</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.26503333944022</v>
+        <v>12.76364758418016</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.498916840248364</v>
+        <v>5.773572313357357</v>
       </c>
       <c r="E8">
-        <v>10.9265106507282</v>
+        <v>15.91107884259672</v>
       </c>
       <c r="F8">
-        <v>24.51086871470038</v>
+        <v>29.67528767152083</v>
       </c>
       <c r="G8">
-        <v>34.17212204391631</v>
+        <v>38.26731412627783</v>
       </c>
       <c r="H8">
-        <v>11.29035778694697</v>
+        <v>16.51067686255677</v>
       </c>
       <c r="I8">
-        <v>19.79161378637218</v>
+        <v>29.14426410304652</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.42391713491274</v>
+        <v>9.48851017916517</v>
       </c>
       <c r="L8">
-        <v>6.451372191924287</v>
+        <v>9.441014512641024</v>
       </c>
       <c r="M8">
-        <v>9.278220252424964</v>
+        <v>14.24335913602519</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.53505836976744</v>
+        <v>12.99365126737829</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.528920410551692</v>
+        <v>5.795595375493309</v>
       </c>
       <c r="E9">
-        <v>10.93031706107684</v>
+        <v>15.89632889110162</v>
       </c>
       <c r="F9">
-        <v>26.31007818329534</v>
+        <v>29.85909002134677</v>
       </c>
       <c r="G9">
-        <v>36.93490522863813</v>
+        <v>38.64255552727487</v>
       </c>
       <c r="H9">
-        <v>11.52165483265659</v>
+        <v>16.45342367521233</v>
       </c>
       <c r="I9">
-        <v>19.41596357211197</v>
+        <v>28.93416778940192</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.31490886595677</v>
+        <v>10.43026966349922</v>
       </c>
       <c r="L9">
-        <v>6.9308066501557</v>
+        <v>9.478464277505616</v>
       </c>
       <c r="M9">
-        <v>9.940122372827593</v>
+        <v>14.29192235362139</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.40561655893519</v>
+        <v>13.17094192373882</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.550278265084989</v>
+        <v>5.811233869591749</v>
       </c>
       <c r="E10">
-        <v>10.94128742559004</v>
+        <v>15.88769954985891</v>
       </c>
       <c r="F10">
-        <v>27.68200847957208</v>
+        <v>30.03217848875862</v>
       </c>
       <c r="G10">
-        <v>39.03754571705139</v>
+        <v>38.97332409559384</v>
       </c>
       <c r="H10">
-        <v>11.73591183358147</v>
+        <v>16.42641628506745</v>
       </c>
       <c r="I10">
-        <v>19.20575968566494</v>
+        <v>28.80179346976756</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.58676698148805</v>
+        <v>11.06193582739408</v>
       </c>
       <c r="L10">
-        <v>7.281312740645203</v>
+        <v>9.513559252122281</v>
       </c>
       <c r="M10">
-        <v>10.42084896324135</v>
+        <v>14.33763128015505</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.78724342344893</v>
+        <v>13.25312824130732</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.559825291986235</v>
+        <v>5.818226636444771</v>
       </c>
       <c r="E11">
-        <v>10.94831257016382</v>
+        <v>15.88425115537745</v>
       </c>
       <c r="F11">
-        <v>28.31562145864019</v>
+        <v>30.11901052980644</v>
       </c>
       <c r="G11">
-        <v>40.00780072425529</v>
+        <v>39.13536274916107</v>
       </c>
       <c r="H11">
-        <v>11.84372719465487</v>
+        <v>16.41740972620707</v>
       </c>
       <c r="I11">
-        <v>19.12620113049528</v>
+        <v>28.74635499551347</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.1400391408491</v>
+        <v>11.33570756252817</v>
       </c>
       <c r="L11">
-        <v>7.439878223182136</v>
+        <v>9.531135489780269</v>
       </c>
       <c r="M11">
-        <v>10.63755696532344</v>
+        <v>14.36055439607462</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.92963955201471</v>
+        <v>13.28444751987</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.563414629160401</v>
+        <v>5.820856826113037</v>
       </c>
       <c r="E12">
-        <v>10.95129001750771</v>
+        <v>15.88301378786595</v>
       </c>
       <c r="F12">
-        <v>28.5568327657142</v>
+        <v>30.15303759284533</v>
       </c>
       <c r="G12">
-        <v>40.37705906995864</v>
+        <v>39.19834732503866</v>
       </c>
       <c r="H12">
-        <v>11.88609953915896</v>
+        <v>16.41447126517808</v>
       </c>
       <c r="I12">
-        <v>19.09854620999896</v>
+        <v>28.7260499521951</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.34594117245685</v>
+        <v>11.43739215241315</v>
       </c>
       <c r="L12">
-        <v>7.499761389938731</v>
+        <v>9.538019444109823</v>
       </c>
       <c r="M12">
-        <v>10.71928003765233</v>
+        <v>14.3695364377245</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.89906677860186</v>
+        <v>13.27769396713852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.562642778997696</v>
+        <v>5.820291166273475</v>
       </c>
       <c r="E13">
-        <v>10.95063424227152</v>
+        <v>15.88327723442287</v>
       </c>
       <c r="F13">
-        <v>28.50482805726033</v>
+        <v>30.14565861207324</v>
       </c>
       <c r="G13">
-        <v>40.29745234613712</v>
+        <v>39.18471090825796</v>
       </c>
       <c r="H13">
-        <v>11.87690427764902</v>
+        <v>16.41508311008636</v>
       </c>
       <c r="I13">
-        <v>19.10438953480112</v>
+        <v>28.73039237730946</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.30175646595627</v>
+        <v>11.41558140805554</v>
       </c>
       <c r="L13">
-        <v>7.486872183987985</v>
+        <v>9.536526769682197</v>
       </c>
       <c r="M13">
-        <v>10.70169540491263</v>
+        <v>14.36758866063993</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.79900109861609</v>
+        <v>13.25570108379398</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.560121117395044</v>
+        <v>5.81844338303597</v>
       </c>
       <c r="E14">
-        <v>10.94855101884351</v>
+        <v>15.88414798510079</v>
       </c>
       <c r="F14">
-        <v>28.33544092944801</v>
+        <v>30.12178710692485</v>
       </c>
       <c r="G14">
-        <v>40.03814349171844</v>
+        <v>39.1405122193765</v>
       </c>
       <c r="H14">
-        <v>11.84718190345521</v>
+        <v>16.41715851245682</v>
       </c>
       <c r="I14">
-        <v>19.12387542717935</v>
+        <v>28.74467068671715</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.15705097142696</v>
+        <v>11.34411321053124</v>
       </c>
       <c r="L14">
-        <v>7.444808276479247</v>
+        <v>9.531697283962414</v>
       </c>
       <c r="M14">
-        <v>10.64428746375791</v>
+        <v>14.36128733843328</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.73743104373856</v>
+        <v>13.24225476759981</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.558573104703967</v>
+        <v>5.817309230557021</v>
       </c>
       <c r="E15">
-        <v>10.94731706830872</v>
+        <v>15.8846902568562</v>
       </c>
       <c r="F15">
-        <v>28.231850252292</v>
+        <v>30.10731374726536</v>
       </c>
       <c r="G15">
-        <v>39.87954620763045</v>
+        <v>39.11364950833958</v>
       </c>
       <c r="H15">
-        <v>11.82917898147294</v>
+        <v>16.41849125527375</v>
       </c>
       <c r="I15">
-        <v>19.13613806043116</v>
+        <v>28.75350623221345</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.06794558270585</v>
+        <v>11.3000772097824</v>
       </c>
       <c r="L15">
-        <v>7.419020863582489</v>
+        <v>9.528768696930639</v>
       </c>
       <c r="M15">
-        <v>10.60907772444265</v>
+        <v>14.35746672328895</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.38038224727191</v>
+        <v>13.16559973549338</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.549650805645506</v>
+        <v>5.810774402994011</v>
       </c>
       <c r="E16">
-        <v>10.94087129785836</v>
+        <v>15.88793449910201</v>
       </c>
       <c r="F16">
-        <v>27.64078339281729</v>
+        <v>30.02666516056385</v>
       </c>
       <c r="G16">
-        <v>38.97440162033355</v>
+        <v>38.96296399430147</v>
       </c>
       <c r="H16">
-        <v>11.72907895733162</v>
+        <v>16.42707092496588</v>
       </c>
       <c r="I16">
-        <v>19.21129587737305</v>
+        <v>28.80551276526359</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.55010233472042</v>
+        <v>11.04376791549948</v>
       </c>
       <c r="L16">
-        <v>7.270929203891003</v>
+        <v>9.512442734869957</v>
       </c>
       <c r="M16">
-        <v>10.40664189240058</v>
+        <v>14.33617566217627</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.15761853484845</v>
+        <v>13.11895091458334</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.544132839535461</v>
+        <v>5.806734166928512</v>
       </c>
       <c r="E17">
-        <v>10.93745479085687</v>
+        <v>15.89004683688312</v>
       </c>
       <c r="F17">
-        <v>27.28054671423174</v>
+        <v>29.97925044599956</v>
       </c>
       <c r="G17">
-        <v>38.42253892225433</v>
+        <v>38.87345957791226</v>
       </c>
       <c r="H17">
-        <v>11.67036197939687</v>
+        <v>16.4331746337274</v>
       </c>
       <c r="I17">
-        <v>19.26162896264055</v>
+        <v>28.83864192038634</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.22595792468515</v>
+        <v>10.88302667310848</v>
       </c>
       <c r="L17">
-        <v>7.179826786764015</v>
+        <v>9.502837581966295</v>
       </c>
       <c r="M17">
-        <v>10.28190579882324</v>
+        <v>14.32365653049784</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.02813764947053</v>
+        <v>13.09226575410615</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.540943259122377</v>
+        <v>5.804398938801604</v>
       </c>
       <c r="E18">
-        <v>10.93567958965137</v>
+        <v>15.8913067166475</v>
       </c>
       <c r="F18">
-        <v>27.07424783625917</v>
+        <v>29.95274174094513</v>
       </c>
       <c r="G18">
-        <v>38.10642218568561</v>
+        <v>38.82307066826498</v>
       </c>
       <c r="H18">
-        <v>11.63756024878434</v>
+        <v>16.43699395972916</v>
       </c>
       <c r="I18">
-        <v>19.29208087298393</v>
+        <v>28.8581467182575</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.03713453708202</v>
+        <v>10.78929633655241</v>
       </c>
       <c r="L18">
-        <v>7.127345833310524</v>
+        <v>9.49746484537561</v>
       </c>
       <c r="M18">
-        <v>10.20997760947168</v>
+        <v>14.316656632906</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.9840669686479</v>
+        <v>13.08325641412861</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.539860661272268</v>
+        <v>5.803606325935101</v>
       </c>
       <c r="E19">
-        <v>10.93511044504198</v>
+        <v>15.89174100967517</v>
       </c>
       <c r="F19">
-        <v>27.00455632050924</v>
+        <v>29.94389791321642</v>
       </c>
       <c r="G19">
-        <v>37.999618542801</v>
+        <v>38.80619849829865</v>
       </c>
       <c r="H19">
-        <v>11.62661913074026</v>
+        <v>16.43834010560727</v>
       </c>
       <c r="I19">
-        <v>19.30264452291954</v>
+        <v>28.86482792661122</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.97279205079989</v>
+        <v>10.75734281604982</v>
       </c>
       <c r="L19">
-        <v>7.10956391228205</v>
+        <v>9.495671919509519</v>
       </c>
       <c r="M19">
-        <v>10.18559429927849</v>
+        <v>14.31432121070635</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.18147254803075</v>
+        <v>13.12390182134091</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.54472188309017</v>
+        <v>5.807165438668656</v>
       </c>
       <c r="E20">
-        <v>10.93779866235138</v>
+        <v>15.88981732707622</v>
       </c>
       <c r="F20">
-        <v>27.31880215202925</v>
+        <v>29.98421898247389</v>
       </c>
       <c r="G20">
-        <v>38.48115219802033</v>
+        <v>38.88287476979021</v>
       </c>
       <c r="H20">
-        <v>11.67651162318684</v>
+        <v>16.43249293625071</v>
       </c>
       <c r="I20">
-        <v>19.25611436666429</v>
+        <v>28.8350687066733</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.26071022909829</v>
+        <v>10.9002702068923</v>
       </c>
       <c r="L20">
-        <v>7.189533480739748</v>
+        <v>9.503844371067387</v>
       </c>
       <c r="M20">
-        <v>10.29520356501972</v>
+        <v>14.32496846723012</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.82845059150636</v>
+        <v>13.26215576780812</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.560862506524797</v>
+        <v>5.818986608403884</v>
       </c>
       <c r="E21">
-        <v>10.94915409383841</v>
+        <v>15.88389036756329</v>
       </c>
       <c r="F21">
-        <v>28.38516002244301</v>
+        <v>30.12876780806568</v>
       </c>
       <c r="G21">
-        <v>40.11425960110329</v>
+        <v>39.15345070289127</v>
       </c>
       <c r="H21">
-        <v>11.85586970167414</v>
+        <v>16.41653609937273</v>
       </c>
       <c r="I21">
-        <v>19.11808350398142</v>
+        <v>28.74045811237447</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.19965217417236</v>
+        <v>11.36515932014055</v>
       </c>
       <c r="L21">
-        <v>7.457168116003173</v>
+        <v>9.533109656358</v>
       </c>
       <c r="M21">
-        <v>10.66115918217963</v>
+        <v>14.36313004435406</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.2389331286374</v>
+        <v>13.3536504382712</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.571259587235879</v>
+        <v>5.826608386306305</v>
       </c>
       <c r="E22">
-        <v>10.95843780214441</v>
+        <v>15.88041575565333</v>
       </c>
       <c r="F22">
-        <v>29.08949851863084</v>
+        <v>30.22990681094536</v>
       </c>
       <c r="G22">
-        <v>41.19230633468813</v>
+        <v>39.33973317548246</v>
       </c>
       <c r="H22">
-        <v>11.98212252632917</v>
+        <v>16.40885944214501</v>
       </c>
       <c r="I22">
-        <v>19.04236575568201</v>
+        <v>28.6826370704105</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.7922841084115</v>
+        <v>11.65739853224994</v>
       </c>
       <c r="L22">
-        <v>7.631125969119093</v>
+        <v>9.553564632609014</v>
       </c>
       <c r="M22">
-        <v>10.89833346251273</v>
+        <v>14.38982615673963</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.02099320124917</v>
+        <v>13.30472180762096</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.565724875029082</v>
+        <v>5.822550145027508</v>
       </c>
       <c r="E23">
-        <v>10.95330362920446</v>
+        <v>15.88223376056281</v>
       </c>
       <c r="F23">
-        <v>28.71292553144173</v>
+        <v>30.17532338747879</v>
       </c>
       <c r="G23">
-        <v>40.61598481103764</v>
+        <v>39.23946044863685</v>
       </c>
       <c r="H23">
-        <v>11.91389380021562</v>
+        <v>16.412704661636</v>
       </c>
       <c r="I23">
-        <v>19.08139496719965</v>
+        <v>28.71312976117867</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.47789620187282</v>
+        <v>11.50249560160272</v>
       </c>
       <c r="L23">
-        <v>7.538378940959713</v>
+        <v>9.542527092693398</v>
       </c>
       <c r="M23">
-        <v>10.77194808952893</v>
+        <v>14.37541895660892</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.17069254001196</v>
+        <v>13.12166309760848</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.544455630035526</v>
+        <v>5.806970499423689</v>
       </c>
       <c r="E24">
-        <v>10.93764261119701</v>
+        <v>15.88992094685896</v>
       </c>
       <c r="F24">
-        <v>27.30150435078534</v>
+        <v>29.98197036750224</v>
       </c>
       <c r="G24">
-        <v>38.45464952314363</v>
+        <v>38.87861483057622</v>
       </c>
       <c r="H24">
-        <v>11.67372839754202</v>
+        <v>16.43280016535483</v>
       </c>
       <c r="I24">
-        <v>19.25860280953115</v>
+        <v>28.83668272872097</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.24500640293929</v>
+        <v>10.89247850812318</v>
       </c>
       <c r="L24">
-        <v>7.185145408557873</v>
+        <v>9.503388736101112</v>
       </c>
       <c r="M24">
-        <v>10.2891923126366</v>
+        <v>14.32437472502653</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.20211566770107</v>
+        <v>12.92987951951035</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.520916900906428</v>
+        <v>5.789731343306193</v>
       </c>
       <c r="E25">
-        <v>10.927932430031</v>
+        <v>15.89993078633872</v>
       </c>
       <c r="F25">
-        <v>25.8140252752025</v>
+        <v>29.80263259542574</v>
       </c>
       <c r="G25">
-        <v>36.17388772422028</v>
+        <v>38.53124770101194</v>
       </c>
       <c r="H25">
-        <v>11.45154610256326</v>
+        <v>16.46627204195483</v>
       </c>
       <c r="I25">
-        <v>19.50660331240578</v>
+        <v>28.98714671129626</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.8239826145846</v>
+        <v>10.18588059988359</v>
       </c>
       <c r="L25">
-        <v>6.801217830829802</v>
+        <v>9.466990566841556</v>
       </c>
       <c r="M25">
-        <v>9.761749413907086</v>
+        <v>14.2770076124564</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7943689804753</v>
+        <v>10.44732479318497</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.776676400080993</v>
+        <v>4.503133787316462</v>
       </c>
       <c r="E2">
-        <v>15.90878481530115</v>
+        <v>10.92617534932297</v>
       </c>
       <c r="F2">
-        <v>29.69623103066452</v>
+        <v>24.75307861331532</v>
       </c>
       <c r="G2">
-        <v>38.31266637593834</v>
+        <v>34.54449574614313</v>
       </c>
       <c r="H2">
-        <v>16.50102973411032</v>
+        <v>11.31746161160087</v>
       </c>
       <c r="I2">
-        <v>29.1126961738474</v>
+        <v>19.73270340926448</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.625368628760203</v>
+        <v>14.69875946471672</v>
       </c>
       <c r="L2">
-        <v>9.445300538166702</v>
+        <v>6.517595846390507</v>
       </c>
       <c r="M2">
-        <v>14.24889270605433</v>
+        <v>9.369991884638781</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.70648831570122</v>
+        <v>9.911785688553289</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.767609287115135</v>
+        <v>4.490834034664264</v>
       </c>
       <c r="E3">
-        <v>15.915714239621</v>
+        <v>10.92801187264324</v>
       </c>
       <c r="F3">
-        <v>29.64031569518267</v>
+        <v>24.0580487435126</v>
       </c>
       <c r="G3">
-        <v>38.18820906881495</v>
+        <v>33.47550023222265</v>
       </c>
       <c r="H3">
-        <v>16.53087260967802</v>
+        <v>11.24383753072145</v>
       </c>
       <c r="I3">
-        <v>29.20698031104261</v>
+        <v>19.91063234627023</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.221443738200657</v>
+        <v>13.88715817735877</v>
       </c>
       <c r="L3">
-        <v>9.433834817097527</v>
+        <v>6.325767470793012</v>
       </c>
       <c r="M3">
-        <v>14.23412268442984</v>
+        <v>9.103807200485834</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65461005694017</v>
+        <v>9.572014512418857</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.761935856030408</v>
+        <v>4.483171788791861</v>
       </c>
       <c r="E4">
-        <v>15.92042833643783</v>
+        <v>10.93053481313465</v>
       </c>
       <c r="F4">
-        <v>29.61401989496536</v>
+        <v>23.64407621495091</v>
       </c>
       <c r="G4">
-        <v>38.12359773278132</v>
+        <v>32.83805969701946</v>
       </c>
       <c r="H4">
-        <v>16.55228940541043</v>
+        <v>11.20673518020796</v>
       </c>
       <c r="I4">
-        <v>29.26940430333186</v>
+        <v>20.03132781583712</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.962009493156513</v>
+        <v>13.36489336595116</v>
       </c>
       <c r="L4">
-        <v>9.428403566259053</v>
+        <v>6.208545384898765</v>
       </c>
       <c r="M4">
-        <v>14.22718692161551</v>
+        <v>8.940574483172622</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.63401162208268</v>
+        <v>9.43096742785006</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.759597547638085</v>
+        <v>4.480023614088021</v>
       </c>
       <c r="E5">
-        <v>15.92246507631469</v>
+        <v>10.93190051876558</v>
       </c>
       <c r="F5">
-        <v>29.60533096756712</v>
+        <v>23.47873912368296</v>
       </c>
       <c r="G5">
-        <v>38.10025298203777</v>
+        <v>32.58329734613897</v>
       </c>
       <c r="H5">
-        <v>16.56179347173277</v>
+        <v>11.1935916322948</v>
       </c>
       <c r="I5">
-        <v>29.29598183880119</v>
+        <v>20.08328780265746</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.853495034143169</v>
+        <v>13.14610718791669</v>
       </c>
       <c r="L5">
-        <v>9.426596786864835</v>
+        <v>6.160978087887261</v>
       </c>
       <c r="M5">
-        <v>14.22489988826488</v>
+        <v>8.874195961257117</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.63062456839261</v>
+        <v>9.40739580809368</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.759207693148831</v>
+        <v>4.479499365435456</v>
       </c>
       <c r="E6">
-        <v>15.92281026940321</v>
+        <v>10.93214731471758</v>
       </c>
       <c r="F6">
-        <v>29.6040107276624</v>
+        <v>23.45149217514061</v>
       </c>
       <c r="G6">
-        <v>38.09655727626648</v>
+        <v>32.5413031803587</v>
       </c>
       <c r="H6">
-        <v>16.56341847702274</v>
+        <v>11.19152665613907</v>
       </c>
       <c r="I6">
-        <v>29.30046380759384</v>
+        <v>20.0920804801356</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.835310163010602</v>
+        <v>13.10942021513548</v>
       </c>
       <c r="L6">
-        <v>9.42632137670293</v>
+        <v>6.153093580067459</v>
       </c>
       <c r="M6">
-        <v>14.22455278447781</v>
+        <v>8.863184990753998</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65433003852984</v>
+        <v>9.570122538531111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.76190442696256</v>
+        <v>4.483129433026962</v>
       </c>
       <c r="E7">
-        <v>15.92045533585719</v>
+        <v>10.93055188140056</v>
       </c>
       <c r="F7">
-        <v>29.61389450018775</v>
+        <v>23.64183262502765</v>
       </c>
       <c r="G7">
-        <v>38.12327079334669</v>
+        <v>32.83460332325201</v>
       </c>
       <c r="H7">
-        <v>16.55241443814464</v>
+        <v>11.20655000410219</v>
       </c>
       <c r="I7">
-        <v>29.26975812535949</v>
+        <v>20.03201745897655</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.960557223852739</v>
+        <v>13.36196677049357</v>
       </c>
       <c r="L7">
-        <v>9.428377551088856</v>
+        <v>6.207902977022068</v>
       </c>
       <c r="M7">
-        <v>14.22715389038403</v>
+        <v>8.93967859173674</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.76364758418016</v>
+        <v>10.26503333944017</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.773572313357357</v>
+        <v>4.498916840248485</v>
       </c>
       <c r="E8">
-        <v>15.91107884259672</v>
+        <v>10.92651065072827</v>
       </c>
       <c r="F8">
-        <v>29.67528767152083</v>
+        <v>24.51086871470038</v>
       </c>
       <c r="G8">
-        <v>38.26731412627783</v>
+        <v>34.17212204391639</v>
       </c>
       <c r="H8">
-        <v>16.51067686255677</v>
+        <v>11.29035778694698</v>
       </c>
       <c r="I8">
-        <v>29.14426410304652</v>
+        <v>19.79161378637226</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.48851017916517</v>
+        <v>14.42391713491277</v>
       </c>
       <c r="L8">
-        <v>9.441014512641024</v>
+        <v>6.451372191924289</v>
       </c>
       <c r="M8">
-        <v>14.24335913602519</v>
+        <v>9.278220252424948</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.99365126737829</v>
+        <v>11.53505836976744</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.795595375493309</v>
+        <v>4.528920410551807</v>
       </c>
       <c r="E9">
-        <v>15.89632889110162</v>
+        <v>10.9303170610767</v>
       </c>
       <c r="F9">
-        <v>29.85909002134677</v>
+        <v>26.31007818329537</v>
       </c>
       <c r="G9">
-        <v>38.64255552727487</v>
+        <v>36.9349052286382</v>
       </c>
       <c r="H9">
-        <v>16.45342367521233</v>
+        <v>11.52165483265665</v>
       </c>
       <c r="I9">
-        <v>28.93416778940192</v>
+        <v>19.41596357211196</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.43026966349922</v>
+        <v>16.31490886595671</v>
       </c>
       <c r="L9">
-        <v>9.478464277505616</v>
+        <v>6.930806650155702</v>
       </c>
       <c r="M9">
-        <v>14.29192235362139</v>
+        <v>9.940122372827572</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.17094192373882</v>
+        <v>12.40561655893521</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.811233869591749</v>
+        <v>4.55027826508524</v>
       </c>
       <c r="E10">
-        <v>15.88769954985891</v>
+        <v>10.94128742559017</v>
       </c>
       <c r="F10">
-        <v>30.03217848875862</v>
+        <v>27.68200847957211</v>
       </c>
       <c r="G10">
-        <v>38.97332409559384</v>
+        <v>39.03754571705146</v>
       </c>
       <c r="H10">
-        <v>16.42641628506745</v>
+        <v>11.73591183358148</v>
       </c>
       <c r="I10">
-        <v>28.80179346976756</v>
+        <v>19.20575968566509</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.06193582739408</v>
+        <v>17.58676698148802</v>
       </c>
       <c r="L10">
-        <v>9.513559252122281</v>
+        <v>7.281312740645197</v>
       </c>
       <c r="M10">
-        <v>14.33763128015505</v>
+        <v>10.42084896324139</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.25312824130732</v>
+        <v>12.78724342344893</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.818226636444771</v>
+        <v>4.559825291986111</v>
       </c>
       <c r="E11">
-        <v>15.88425115537745</v>
+        <v>10.94831257016389</v>
       </c>
       <c r="F11">
-        <v>30.11901052980644</v>
+        <v>28.31562145864023</v>
       </c>
       <c r="G11">
-        <v>39.13536274916107</v>
+        <v>40.00780072425529</v>
       </c>
       <c r="H11">
-        <v>16.41740972620707</v>
+        <v>11.84372719465497</v>
       </c>
       <c r="I11">
-        <v>28.74635499551347</v>
+        <v>19.12620113049529</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.33570756252817</v>
+        <v>18.14003914084911</v>
       </c>
       <c r="L11">
-        <v>9.531135489780269</v>
+        <v>7.439878223182165</v>
       </c>
       <c r="M11">
-        <v>14.36055439607462</v>
+        <v>10.63755696532345</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.28444751987</v>
+        <v>12.92963955201472</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.820856826113037</v>
+        <v>4.56341462916034</v>
       </c>
       <c r="E12">
-        <v>15.88301378786595</v>
+        <v>10.95129001750771</v>
       </c>
       <c r="F12">
-        <v>30.15303759284533</v>
+        <v>28.55683276571414</v>
       </c>
       <c r="G12">
-        <v>39.19834732503866</v>
+        <v>40.37705906995858</v>
       </c>
       <c r="H12">
-        <v>16.41447126517808</v>
+        <v>11.88609953915896</v>
       </c>
       <c r="I12">
-        <v>28.7260499521951</v>
+        <v>19.09854620999895</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.43739215241315</v>
+        <v>18.34594117245685</v>
       </c>
       <c r="L12">
-        <v>9.538019444109823</v>
+        <v>7.499761389938733</v>
       </c>
       <c r="M12">
-        <v>14.3695364377245</v>
+        <v>10.71928003765233</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.27769396713852</v>
+        <v>12.89906677860188</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.820291166273475</v>
+        <v>4.562642778997756</v>
       </c>
       <c r="E13">
-        <v>15.88327723442287</v>
+        <v>10.95063424227152</v>
       </c>
       <c r="F13">
-        <v>30.14565861207324</v>
+        <v>28.50482805726038</v>
       </c>
       <c r="G13">
-        <v>39.18471090825796</v>
+        <v>40.29745234613721</v>
       </c>
       <c r="H13">
-        <v>16.41508311008636</v>
+        <v>11.87690427764903</v>
       </c>
       <c r="I13">
-        <v>28.73039237730946</v>
+        <v>19.10438953480118</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.41558140805554</v>
+        <v>18.30175646595628</v>
       </c>
       <c r="L13">
-        <v>9.536526769682197</v>
+        <v>7.486872183987982</v>
       </c>
       <c r="M13">
-        <v>14.36758866063993</v>
+        <v>10.70169540491262</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.25570108379398</v>
+        <v>12.79900109861609</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.81844338303597</v>
+        <v>4.560121117395113</v>
       </c>
       <c r="E14">
-        <v>15.88414798510079</v>
+        <v>10.94855101884371</v>
       </c>
       <c r="F14">
-        <v>30.12178710692485</v>
+        <v>28.33544092944797</v>
       </c>
       <c r="G14">
-        <v>39.1405122193765</v>
+        <v>40.03814349171841</v>
       </c>
       <c r="H14">
-        <v>16.41715851245682</v>
+        <v>11.8471819034552</v>
       </c>
       <c r="I14">
-        <v>28.74467068671715</v>
+        <v>19.12387542717935</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.34411321053124</v>
+        <v>18.15705097142706</v>
       </c>
       <c r="L14">
-        <v>9.531697283962414</v>
+        <v>7.444808276479282</v>
       </c>
       <c r="M14">
-        <v>14.36128733843328</v>
+        <v>10.64428746375792</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.24225476759981</v>
+        <v>12.73743104373857</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.817309230557021</v>
+        <v>4.558573104703964</v>
       </c>
       <c r="E15">
-        <v>15.8846902568562</v>
+        <v>10.94731706830886</v>
       </c>
       <c r="F15">
-        <v>30.10731374726536</v>
+        <v>28.23185025229195</v>
       </c>
       <c r="G15">
-        <v>39.11364950833958</v>
+        <v>39.8795462076304</v>
       </c>
       <c r="H15">
-        <v>16.41849125527375</v>
+        <v>11.82917898147293</v>
       </c>
       <c r="I15">
-        <v>28.75350623221345</v>
+        <v>19.13613806043115</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.3000772097824</v>
+        <v>18.06794558270582</v>
       </c>
       <c r="L15">
-        <v>9.528768696930639</v>
+        <v>7.419020863582523</v>
       </c>
       <c r="M15">
-        <v>14.35746672328895</v>
+        <v>10.60907772444267</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.16559973549338</v>
+        <v>12.3803822472719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.810774402994011</v>
+        <v>4.549650805645441</v>
       </c>
       <c r="E16">
-        <v>15.88793449910201</v>
+        <v>10.9408712978581</v>
       </c>
       <c r="F16">
-        <v>30.02666516056385</v>
+        <v>27.64078339281726</v>
       </c>
       <c r="G16">
-        <v>38.96296399430147</v>
+        <v>38.97440162033351</v>
       </c>
       <c r="H16">
-        <v>16.42707092496588</v>
+        <v>11.72907895733165</v>
       </c>
       <c r="I16">
-        <v>28.80551276526359</v>
+        <v>19.21129587737292</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.04376791549948</v>
+        <v>17.55010233472036</v>
       </c>
       <c r="L16">
-        <v>9.512442734869957</v>
+        <v>7.270929203890966</v>
       </c>
       <c r="M16">
-        <v>14.33617566217627</v>
+        <v>10.40664189240055</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.11895091458334</v>
+        <v>12.15761853484845</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.806734166928512</v>
+        <v>4.544132839535204</v>
       </c>
       <c r="E17">
-        <v>15.89004683688312</v>
+        <v>10.93745479085694</v>
       </c>
       <c r="F17">
-        <v>29.97925044599956</v>
+        <v>27.28054671423178</v>
       </c>
       <c r="G17">
-        <v>38.87345957791226</v>
+        <v>38.42253892225437</v>
       </c>
       <c r="H17">
-        <v>16.4331746337274</v>
+        <v>11.67036197939689</v>
       </c>
       <c r="I17">
-        <v>28.83864192038634</v>
+        <v>19.26162896264046</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.88302667310848</v>
+        <v>17.22595792468518</v>
       </c>
       <c r="L17">
-        <v>9.502837581966295</v>
+        <v>7.179826786764017</v>
       </c>
       <c r="M17">
-        <v>14.32365653049784</v>
+        <v>10.28190579882326</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.09226575410615</v>
+        <v>12.02813764947055</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.804398938801604</v>
+        <v>4.540943259122376</v>
       </c>
       <c r="E18">
-        <v>15.8913067166475</v>
+        <v>10.93567958965143</v>
       </c>
       <c r="F18">
-        <v>29.95274174094513</v>
+        <v>27.07424783625919</v>
       </c>
       <c r="G18">
-        <v>38.82307066826498</v>
+        <v>38.10642218568563</v>
       </c>
       <c r="H18">
-        <v>16.43699395972916</v>
+        <v>11.63756024878438</v>
       </c>
       <c r="I18">
-        <v>28.8581467182575</v>
+        <v>19.29208087298401</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.78929633655241</v>
+        <v>17.037134537082</v>
       </c>
       <c r="L18">
-        <v>9.49746484537561</v>
+        <v>7.127345833310564</v>
       </c>
       <c r="M18">
-        <v>14.316656632906</v>
+        <v>10.20997760947171</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.08325641412861</v>
+        <v>11.98406696864791</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.803606325935101</v>
+        <v>4.539860661272404</v>
       </c>
       <c r="E19">
-        <v>15.89174100967517</v>
+        <v>10.93511044504191</v>
       </c>
       <c r="F19">
-        <v>29.94389791321642</v>
+        <v>27.00455632050921</v>
       </c>
       <c r="G19">
-        <v>38.80619849829865</v>
+        <v>37.99961854280093</v>
       </c>
       <c r="H19">
-        <v>16.43834010560727</v>
+        <v>11.62661913074025</v>
       </c>
       <c r="I19">
-        <v>28.86482792661122</v>
+        <v>19.30264452291959</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.75734281604982</v>
+        <v>16.97279205079989</v>
       </c>
       <c r="L19">
-        <v>9.495671919509519</v>
+        <v>7.109563912282026</v>
       </c>
       <c r="M19">
-        <v>14.31432121070635</v>
+        <v>10.18559429927847</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.12390182134091</v>
+        <v>12.18147254803077</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.807165438668656</v>
+        <v>4.544721883090416</v>
       </c>
       <c r="E20">
-        <v>15.88981732707622</v>
+        <v>10.93779866235138</v>
       </c>
       <c r="F20">
-        <v>29.98421898247389</v>
+        <v>27.31880215202925</v>
       </c>
       <c r="G20">
-        <v>38.88287476979021</v>
+        <v>38.48115219802041</v>
       </c>
       <c r="H20">
-        <v>16.43249293625071</v>
+        <v>11.67651162318687</v>
       </c>
       <c r="I20">
-        <v>28.8350687066733</v>
+        <v>19.25611436666435</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.9002702068923</v>
+        <v>17.26071022909827</v>
       </c>
       <c r="L20">
-        <v>9.503844371067387</v>
+        <v>7.189533480739711</v>
       </c>
       <c r="M20">
-        <v>14.32496846723012</v>
+        <v>10.29520356501973</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.26215576780812</v>
+        <v>12.82845059150636</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.818986608403884</v>
+        <v>4.560862506524733</v>
       </c>
       <c r="E21">
-        <v>15.88389036756329</v>
+        <v>10.94915409383847</v>
       </c>
       <c r="F21">
-        <v>30.12876780806568</v>
+        <v>28.38516002244303</v>
       </c>
       <c r="G21">
-        <v>39.15345070289127</v>
+        <v>40.11425960110329</v>
       </c>
       <c r="H21">
-        <v>16.41653609937273</v>
+        <v>11.85586970167417</v>
       </c>
       <c r="I21">
-        <v>28.74045811237447</v>
+        <v>19.11808350398147</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.36515932014055</v>
+        <v>18.19965217417238</v>
       </c>
       <c r="L21">
-        <v>9.533109656358</v>
+        <v>7.457168116003193</v>
       </c>
       <c r="M21">
-        <v>14.36313004435406</v>
+        <v>10.66115918217964</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.3536504382712</v>
+        <v>13.2389331286374</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.826608386306305</v>
+        <v>4.571259587235883</v>
       </c>
       <c r="E22">
-        <v>15.88041575565333</v>
+        <v>10.95843780214434</v>
       </c>
       <c r="F22">
-        <v>30.22990681094536</v>
+        <v>29.08949851863084</v>
       </c>
       <c r="G22">
-        <v>39.33973317548246</v>
+        <v>41.19230633468817</v>
       </c>
       <c r="H22">
-        <v>16.40885944214501</v>
+        <v>11.98212252632912</v>
       </c>
       <c r="I22">
-        <v>28.6826370704105</v>
+        <v>19.04236575568196</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.65739853224994</v>
+        <v>18.79228410841146</v>
       </c>
       <c r="L22">
-        <v>9.553564632609014</v>
+        <v>7.631125969119082</v>
       </c>
       <c r="M22">
-        <v>14.38982615673963</v>
+        <v>10.89833346251272</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.30472180762096</v>
+        <v>13.02099320124917</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.822550145027508</v>
+        <v>4.565724875029196</v>
       </c>
       <c r="E23">
-        <v>15.88223376056281</v>
+        <v>10.95330362920439</v>
       </c>
       <c r="F23">
-        <v>30.17532338747879</v>
+        <v>28.71292553144177</v>
       </c>
       <c r="G23">
-        <v>39.23946044863685</v>
+        <v>40.6159848110377</v>
       </c>
       <c r="H23">
-        <v>16.412704661636</v>
+        <v>11.91389380021565</v>
       </c>
       <c r="I23">
-        <v>28.71312976117867</v>
+        <v>19.08139496719974</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.50249560160272</v>
+        <v>18.4778962018728</v>
       </c>
       <c r="L23">
-        <v>9.542527092693398</v>
+        <v>7.538378940959649</v>
       </c>
       <c r="M23">
-        <v>14.37541895660892</v>
+        <v>10.77194808952891</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.12166309760848</v>
+        <v>12.17069254001195</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.806970499423689</v>
+        <v>4.544455630035721</v>
       </c>
       <c r="E24">
-        <v>15.88992094685896</v>
+        <v>10.93764261119694</v>
       </c>
       <c r="F24">
-        <v>29.98197036750224</v>
+        <v>27.30150435078535</v>
       </c>
       <c r="G24">
-        <v>38.87861483057622</v>
+        <v>38.45464952314373</v>
       </c>
       <c r="H24">
-        <v>16.43280016535483</v>
+        <v>11.67372839754204</v>
       </c>
       <c r="I24">
-        <v>28.83668272872097</v>
+        <v>19.25860280953105</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.89247850812318</v>
+        <v>17.24500640293929</v>
       </c>
       <c r="L24">
-        <v>9.503388736101112</v>
+        <v>7.185145408557892</v>
       </c>
       <c r="M24">
-        <v>14.32437472502653</v>
+        <v>10.28919231263657</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.92987951951035</v>
+        <v>11.20211566770106</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.789731343306193</v>
+        <v>4.520916900906554</v>
       </c>
       <c r="E25">
-        <v>15.89993078633872</v>
+        <v>10.927932430031</v>
       </c>
       <c r="F25">
-        <v>29.80263259542574</v>
+        <v>25.81402527520256</v>
       </c>
       <c r="G25">
-        <v>38.53124770101194</v>
+        <v>36.17388772422036</v>
       </c>
       <c r="H25">
-        <v>16.46627204195483</v>
+        <v>11.45154610256331</v>
       </c>
       <c r="I25">
-        <v>28.98714671129626</v>
+        <v>19.50660331240586</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.18588059988359</v>
+        <v>15.82398261458457</v>
       </c>
       <c r="L25">
-        <v>9.466990566841556</v>
+        <v>6.801217830829823</v>
       </c>
       <c r="M25">
-        <v>14.2770076124564</v>
+        <v>9.761749413907086</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.44732479318497</v>
+        <v>24.03951969628692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.503133787316462</v>
+        <v>8.109342739526337</v>
       </c>
       <c r="E2">
-        <v>10.92617534932297</v>
+        <v>13.37374519381077</v>
       </c>
       <c r="F2">
-        <v>24.75307861331532</v>
+        <v>28.2667299322165</v>
       </c>
       <c r="G2">
-        <v>34.54449574614313</v>
+        <v>35.38732958941294</v>
       </c>
       <c r="H2">
-        <v>11.31746161160087</v>
+        <v>3.433895891336416</v>
       </c>
       <c r="I2">
-        <v>19.73270340926448</v>
+        <v>3.005390845382122</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.34735823756303</v>
       </c>
       <c r="K2">
-        <v>14.69875946471672</v>
+        <v>70.04831980844861</v>
       </c>
       <c r="L2">
-        <v>6.517595846390507</v>
+        <v>8.223014651705176</v>
       </c>
       <c r="M2">
-        <v>9.369991884638781</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>19.23898366166553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.911785688553289</v>
+        <v>22.47103589359181</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.490834034664264</v>
+        <v>7.883390285651688</v>
       </c>
       <c r="E3">
-        <v>10.92801187264324</v>
+        <v>12.88178551901011</v>
       </c>
       <c r="F3">
-        <v>24.0580487435126</v>
+        <v>26.85028448042646</v>
       </c>
       <c r="G3">
-        <v>33.47550023222265</v>
+        <v>33.24182717978675</v>
       </c>
       <c r="H3">
-        <v>11.24383753072145</v>
+        <v>3.168886931167433</v>
       </c>
       <c r="I3">
-        <v>19.91063234627023</v>
+        <v>3.192510874708861</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.992843362994023</v>
       </c>
       <c r="K3">
-        <v>13.88715817735877</v>
+        <v>65.44940052185392</v>
       </c>
       <c r="L3">
-        <v>6.325767470793012</v>
+        <v>7.991494361741264</v>
       </c>
       <c r="M3">
-        <v>9.103807200485834</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>18.31458698640349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.572014512418857</v>
+        <v>21.44996014040526</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.483171788791861</v>
+        <v>7.741811596232568</v>
       </c>
       <c r="E4">
-        <v>10.93053481313465</v>
+        <v>12.56964211876902</v>
       </c>
       <c r="F4">
-        <v>23.64407621495091</v>
+        <v>25.95136037904216</v>
       </c>
       <c r="G4">
-        <v>32.83805969701946</v>
+        <v>31.86560538638514</v>
       </c>
       <c r="H4">
-        <v>11.20673518020796</v>
+        <v>3.000396048147343</v>
       </c>
       <c r="I4">
-        <v>20.03132781583712</v>
+        <v>3.308238040789099</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.772546403405475</v>
       </c>
       <c r="K4">
-        <v>13.36489336595116</v>
+        <v>62.55294165479136</v>
       </c>
       <c r="L4">
-        <v>6.208545384898765</v>
+        <v>7.845153557692604</v>
       </c>
       <c r="M4">
-        <v>8.940574483172622</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.73037110786534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.43096742785006</v>
+        <v>21.0191248006034</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.480023614088021</v>
+        <v>7.683450572109194</v>
       </c>
       <c r="E5">
-        <v>10.93190051876558</v>
+        <v>12.43999792932014</v>
       </c>
       <c r="F5">
-        <v>23.47873912368296</v>
+        <v>25.57808356242143</v>
       </c>
       <c r="G5">
-        <v>32.58329734613897</v>
+        <v>31.29031105318721</v>
       </c>
       <c r="H5">
-        <v>11.1935916322948</v>
+        <v>2.930255772198449</v>
       </c>
       <c r="I5">
-        <v>20.08328780265746</v>
+        <v>3.357057364133082</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.682227953079375</v>
       </c>
       <c r="K5">
-        <v>13.14610718791669</v>
+        <v>61.41579519922216</v>
       </c>
       <c r="L5">
-        <v>6.160978087887261</v>
+        <v>7.784498426319832</v>
       </c>
       <c r="M5">
-        <v>8.874195961257117</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>17.4883938357111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.40739580809368</v>
+        <v>20.94660719316666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.479499365435456</v>
+        <v>7.673720998381242</v>
       </c>
       <c r="E6">
-        <v>10.93214731471758</v>
+        <v>12.41832595121966</v>
       </c>
       <c r="F6">
-        <v>23.45149217514061</v>
+        <v>25.51569376411029</v>
       </c>
       <c r="G6">
-        <v>32.5413031803587</v>
+        <v>31.19392128654172</v>
       </c>
       <c r="H6">
-        <v>11.19152665613907</v>
+        <v>2.918518945771827</v>
       </c>
       <c r="I6">
-        <v>20.0920804801356</v>
+        <v>3.367086934272987</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.667201212890268</v>
       </c>
       <c r="K6">
-        <v>13.10942021513548</v>
+        <v>61.31282198545149</v>
       </c>
       <c r="L6">
-        <v>6.153093580067459</v>
+        <v>7.774366101008376</v>
       </c>
       <c r="M6">
-        <v>8.863184990753998</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17.44798688784677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.570122538531111</v>
+        <v>21.44400016915299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.483129433026962</v>
+        <v>7.741027151216072</v>
       </c>
       <c r="E7">
-        <v>10.93055188140056</v>
+        <v>12.56790345499695</v>
       </c>
       <c r="F7">
-        <v>23.64183262502765</v>
+        <v>25.94635384316609</v>
       </c>
       <c r="G7">
-        <v>32.83460332325201</v>
+        <v>31.8579048590857</v>
       </c>
       <c r="H7">
-        <v>11.20655000410219</v>
+        <v>2.999456134613444</v>
       </c>
       <c r="I7">
-        <v>20.03201745897655</v>
+        <v>3.31378638727711</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.771330388547298</v>
       </c>
       <c r="K7">
-        <v>13.36196677049357</v>
+        <v>62.77205030764391</v>
       </c>
       <c r="L7">
-        <v>6.207902977022068</v>
+        <v>7.844339625908078</v>
       </c>
       <c r="M7">
-        <v>8.93967859173674</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.72712312641849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.26503333944017</v>
+        <v>23.51060482620635</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.498916840248485</v>
+        <v>8.032052139890791</v>
       </c>
       <c r="E8">
-        <v>10.92651065072827</v>
+        <v>13.20625994528617</v>
       </c>
       <c r="F8">
-        <v>24.51086871470038</v>
+        <v>27.78461698917618</v>
       </c>
       <c r="G8">
-        <v>34.17212204391639</v>
+        <v>34.65995109985743</v>
       </c>
       <c r="H8">
-        <v>11.29035778694698</v>
+        <v>3.343702730734627</v>
       </c>
       <c r="I8">
-        <v>19.79161378637226</v>
+        <v>3.075717945874242</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.22573123806345</v>
       </c>
       <c r="K8">
-        <v>14.42391713491277</v>
+        <v>68.7835940212962</v>
       </c>
       <c r="L8">
-        <v>6.451372191924289</v>
+        <v>8.144073807185194</v>
       </c>
       <c r="M8">
-        <v>9.278220252424948</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18.92385651127014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.53505836976744</v>
+        <v>27.11809087931507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.528920410551807</v>
+        <v>8.578286412832897</v>
       </c>
       <c r="E9">
-        <v>10.9303170610767</v>
+        <v>14.37475454777097</v>
       </c>
       <c r="F9">
-        <v>26.31007818329537</v>
+        <v>31.14385874077339</v>
       </c>
       <c r="G9">
-        <v>36.9349052286382</v>
+        <v>39.67736712339207</v>
       </c>
       <c r="H9">
-        <v>11.52165483265665</v>
+        <v>3.974228018866569</v>
       </c>
       <c r="I9">
-        <v>19.41596357211196</v>
+        <v>2.607337829569494</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.09152949922473</v>
       </c>
       <c r="K9">
-        <v>16.31490886595671</v>
+        <v>79.22058890756904</v>
       </c>
       <c r="L9">
-        <v>6.930806650155702</v>
+        <v>8.697394173303568</v>
       </c>
       <c r="M9">
-        <v>9.940122372827572</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>21.12872179770164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.40561655893521</v>
+        <v>29.52590840198576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.55027826508524</v>
+        <v>8.884428821538041</v>
       </c>
       <c r="E10">
-        <v>10.94128742559017</v>
+        <v>14.9697041834272</v>
       </c>
       <c r="F10">
-        <v>27.68200847957211</v>
+        <v>33.24101044481457</v>
       </c>
       <c r="G10">
-        <v>39.03754571705146</v>
+        <v>42.83526324425834</v>
       </c>
       <c r="H10">
-        <v>11.73591183358148</v>
+        <v>4.390914151458157</v>
       </c>
       <c r="I10">
-        <v>19.20575968566509</v>
+        <v>2.694300863279516</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.65729833565011</v>
       </c>
       <c r="K10">
-        <v>17.58676698148802</v>
+        <v>86.33114078562375</v>
       </c>
       <c r="L10">
-        <v>7.281312740645197</v>
+        <v>8.974023490037878</v>
       </c>
       <c r="M10">
-        <v>10.42084896324139</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>22.54016366725865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.78724342344893</v>
+        <v>30.56501963939844</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.559825291986111</v>
+        <v>8.360215101824506</v>
       </c>
       <c r="E11">
-        <v>10.94831257016389</v>
+        <v>13.49010492168442</v>
       </c>
       <c r="F11">
-        <v>28.31562145864023</v>
+        <v>32.37770784403025</v>
       </c>
       <c r="G11">
-        <v>40.00780072425529</v>
+        <v>42.24826716199698</v>
       </c>
       <c r="H11">
-        <v>11.84372719465497</v>
+        <v>4.847394041526716</v>
       </c>
       <c r="I11">
-        <v>19.12620113049529</v>
+        <v>2.863409948912086</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.47858615131887</v>
       </c>
       <c r="K11">
-        <v>18.14003914084911</v>
+        <v>89.71136125585014</v>
       </c>
       <c r="L11">
-        <v>7.439878223182165</v>
+        <v>8.219707577006734</v>
       </c>
       <c r="M11">
-        <v>10.63755696532345</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>22.19997221975793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.92963955201472</v>
+        <v>30.94890444533592</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.56341462916034</v>
+        <v>7.868699154705714</v>
       </c>
       <c r="E12">
-        <v>10.95129001750771</v>
+        <v>12.20656699501204</v>
       </c>
       <c r="F12">
-        <v>28.55683276571414</v>
+        <v>31.19120780199885</v>
       </c>
       <c r="G12">
-        <v>40.37705906995858</v>
+        <v>41.08306017396545</v>
       </c>
       <c r="H12">
-        <v>11.88609953915896</v>
+        <v>5.659153844630828</v>
       </c>
       <c r="I12">
-        <v>19.09854620999895</v>
+        <v>2.920602483785713</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.20182107985995</v>
       </c>
       <c r="K12">
-        <v>18.34594117245685</v>
+        <v>90.8143682008233</v>
       </c>
       <c r="L12">
-        <v>7.499761389938733</v>
+        <v>7.603112776957096</v>
       </c>
       <c r="M12">
-        <v>10.71928003765233</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>21.60661327533282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.89906677860188</v>
+        <v>30.86632728123295</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.562642778997756</v>
+        <v>7.370543288927557</v>
       </c>
       <c r="E13">
-        <v>10.95063424227152</v>
+        <v>11.01068691841077</v>
       </c>
       <c r="F13">
-        <v>28.50482805726038</v>
+        <v>29.64972845199284</v>
       </c>
       <c r="G13">
-        <v>40.29745234613721</v>
+        <v>39.36227343677424</v>
       </c>
       <c r="H13">
-        <v>11.87690427764903</v>
+        <v>6.647495845637986</v>
       </c>
       <c r="I13">
-        <v>19.10438953480118</v>
+        <v>2.906780731808359</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.82648550831424</v>
       </c>
       <c r="K13">
-        <v>18.30175646595628</v>
+        <v>90.546897089683</v>
       </c>
       <c r="L13">
-        <v>7.486872183987982</v>
+        <v>7.068931256559059</v>
       </c>
       <c r="M13">
-        <v>10.70169540491262</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>20.76483667295727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.79900109861609</v>
+        <v>30.59665531019523</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.560121117395113</v>
+        <v>7.023711770050084</v>
       </c>
       <c r="E14">
-        <v>10.94855101884371</v>
+        <v>10.25339330606039</v>
       </c>
       <c r="F14">
-        <v>28.33544092944797</v>
+        <v>28.39037161458743</v>
       </c>
       <c r="G14">
-        <v>40.03814349171841</v>
+        <v>37.88080845467329</v>
       </c>
       <c r="H14">
-        <v>11.8471819034552</v>
+        <v>7.415416475090191</v>
       </c>
       <c r="I14">
-        <v>19.12387542717935</v>
+        <v>2.867465423457775</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.51574468022561</v>
       </c>
       <c r="K14">
-        <v>18.15705097142706</v>
+        <v>89.78932321383597</v>
       </c>
       <c r="L14">
-        <v>7.444808276479282</v>
+        <v>6.758398265068948</v>
       </c>
       <c r="M14">
-        <v>10.64428746375792</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>20.05260581474442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.73743104373857</v>
+        <v>30.4309102586133</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.558573104703964</v>
+        <v>6.935995531800605</v>
       </c>
       <c r="E15">
-        <v>10.94731706830886</v>
+        <v>10.07696576797675</v>
       </c>
       <c r="F15">
-        <v>28.23185025229195</v>
+        <v>28.00619260325463</v>
       </c>
       <c r="G15">
-        <v>39.8795462076304</v>
+        <v>37.39671198688963</v>
       </c>
       <c r="H15">
-        <v>11.82917898147293</v>
+        <v>7.590206176888617</v>
       </c>
       <c r="I15">
-        <v>19.13613806043115</v>
+        <v>2.846492030909852</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.41938521290025</v>
       </c>
       <c r="K15">
-        <v>18.06794558270582</v>
+        <v>89.384250240553</v>
       </c>
       <c r="L15">
-        <v>7.419020863582523</v>
+        <v>6.690058343161265</v>
       </c>
       <c r="M15">
-        <v>10.60907772444267</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>19.82529066198174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.3803822472719</v>
+        <v>29.46102307622637</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.549650805645441</v>
+        <v>6.89460680263508</v>
       </c>
       <c r="E16">
-        <v>10.9408712978581</v>
+        <v>10.02381765086944</v>
       </c>
       <c r="F16">
-        <v>27.64078339281726</v>
+        <v>27.34103447888015</v>
       </c>
       <c r="G16">
-        <v>38.97440162033351</v>
+        <v>36.29943369131288</v>
       </c>
       <c r="H16">
-        <v>11.72907895733165</v>
+        <v>7.299022044975037</v>
       </c>
       <c r="I16">
-        <v>19.21129587737292</v>
+        <v>2.708061172222736</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.23937806886987</v>
       </c>
       <c r="K16">
-        <v>17.55010233472036</v>
+        <v>86.6367325381926</v>
       </c>
       <c r="L16">
-        <v>7.270929203890966</v>
+        <v>6.666425511109198</v>
       </c>
       <c r="M16">
-        <v>10.40664189240055</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>19.35133176791257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.15761853484845</v>
+        <v>28.85101104749148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.544132839535204</v>
+        <v>7.046234320008575</v>
       </c>
       <c r="E17">
-        <v>10.93745479085694</v>
+        <v>10.36959420823564</v>
       </c>
       <c r="F17">
-        <v>27.28054671423178</v>
+        <v>27.52595460773528</v>
       </c>
       <c r="G17">
-        <v>38.42253892225437</v>
+        <v>36.27553409926026</v>
       </c>
       <c r="H17">
-        <v>11.67036197939689</v>
+        <v>6.617335463787326</v>
       </c>
       <c r="I17">
-        <v>19.26162896264046</v>
+        <v>2.623905086322607</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.27139974715878</v>
       </c>
       <c r="K17">
-        <v>17.22595792468518</v>
+        <v>84.91638599100503</v>
       </c>
       <c r="L17">
-        <v>7.179826786764017</v>
+        <v>6.801164830225326</v>
       </c>
       <c r="M17">
-        <v>10.28190579882326</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>19.37988948762061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.02813764947055</v>
+        <v>28.49337206267155</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.540943259122376</v>
+        <v>7.39792503138431</v>
       </c>
       <c r="E18">
-        <v>10.93567958965143</v>
+        <v>11.20343430102692</v>
       </c>
       <c r="F18">
-        <v>27.07424783625919</v>
+        <v>28.46382777829792</v>
       </c>
       <c r="G18">
-        <v>38.10642218568563</v>
+        <v>37.18282499036569</v>
       </c>
       <c r="H18">
-        <v>11.63756024878438</v>
+        <v>5.608174201676158</v>
       </c>
       <c r="I18">
-        <v>19.29208087298401</v>
+        <v>2.567073126085487</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.48769353982466</v>
       </c>
       <c r="K18">
-        <v>17.037134537082</v>
+        <v>83.74900462306361</v>
       </c>
       <c r="L18">
-        <v>7.127345833310564</v>
+        <v>7.156807369949357</v>
       </c>
       <c r="M18">
-        <v>10.20997760947171</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>19.84426162839213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.98406696864791</v>
+        <v>28.37226976796862</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.539860661272404</v>
+        <v>7.904832933361387</v>
       </c>
       <c r="E19">
-        <v>10.93511044504191</v>
+        <v>12.48343712892842</v>
       </c>
       <c r="F19">
-        <v>27.00455632050921</v>
+        <v>29.91663532800912</v>
       </c>
       <c r="G19">
-        <v>37.99961854280093</v>
+        <v>38.74959903501037</v>
       </c>
       <c r="H19">
-        <v>11.62661913074025</v>
+        <v>4.651050938840052</v>
       </c>
       <c r="I19">
-        <v>19.30264452291959</v>
+        <v>2.554485117098951</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.83112047735875</v>
       </c>
       <c r="K19">
-        <v>16.97279205079989</v>
+        <v>83.47852690970711</v>
       </c>
       <c r="L19">
-        <v>7.109563912282026</v>
+        <v>7.748714479451754</v>
       </c>
       <c r="M19">
-        <v>10.18559429927847</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>20.61288087521965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.18147254803077</v>
+        <v>28.91642397048742</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.544721883090416</v>
+        <v>8.801489108467798</v>
       </c>
       <c r="E20">
-        <v>10.93779866235138</v>
+        <v>14.8066950844416</v>
       </c>
       <c r="F20">
-        <v>27.31880215202925</v>
+        <v>32.69100764389681</v>
       </c>
       <c r="G20">
-        <v>38.48115219802041</v>
+        <v>42.01408463236218</v>
       </c>
       <c r="H20">
-        <v>11.67651162318687</v>
+        <v>4.281293777770587</v>
       </c>
       <c r="I20">
-        <v>19.25611436666435</v>
+        <v>2.632150952014016</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.50788564996657</v>
       </c>
       <c r="K20">
-        <v>17.26071022909827</v>
+        <v>85.08804631142091</v>
       </c>
       <c r="L20">
-        <v>7.189533480739711</v>
+        <v>8.897664886775287</v>
       </c>
       <c r="M20">
-        <v>10.29520356501973</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>22.17065773166238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.82845059150636</v>
+        <v>30.6775968148569</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.560862506524733</v>
+        <v>9.151624026934718</v>
       </c>
       <c r="E21">
-        <v>10.94915409383847</v>
+        <v>15.57045760647431</v>
       </c>
       <c r="F21">
-        <v>28.38516002244303</v>
+        <v>34.56786203485077</v>
       </c>
       <c r="G21">
-        <v>40.11425960110329</v>
+        <v>44.69782126019368</v>
       </c>
       <c r="H21">
-        <v>11.85586970167417</v>
+        <v>4.627437722216687</v>
       </c>
       <c r="I21">
-        <v>19.11808350398147</v>
+        <v>2.887686022020177</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.01155034103358</v>
       </c>
       <c r="K21">
-        <v>18.19965217417238</v>
+        <v>90.18568523955349</v>
       </c>
       <c r="L21">
-        <v>7.457168116003193</v>
+        <v>9.269572738558123</v>
       </c>
       <c r="M21">
-        <v>10.66115918217964</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>23.39441351351358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.2389331286374</v>
+        <v>31.77799867576358</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.571259587235883</v>
+        <v>9.336759089582156</v>
       </c>
       <c r="E22">
-        <v>10.95843780214434</v>
+        <v>15.95134966340477</v>
       </c>
       <c r="F22">
-        <v>29.08949851863084</v>
+        <v>35.65549582971174</v>
       </c>
       <c r="G22">
-        <v>41.19230633468817</v>
+        <v>46.27839669729178</v>
       </c>
       <c r="H22">
-        <v>11.98212252632912</v>
+        <v>4.838227130936908</v>
       </c>
       <c r="I22">
-        <v>19.04236575568196</v>
+        <v>3.04608517104812</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.3103103404663</v>
       </c>
       <c r="K22">
-        <v>18.79228410841146</v>
+        <v>93.18425791350997</v>
       </c>
       <c r="L22">
-        <v>7.631125969119082</v>
+        <v>9.453026007985811</v>
       </c>
       <c r="M22">
-        <v>10.89833346251272</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>24.11726262710952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.02099320124917</v>
+        <v>31.19327424365959</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.565724875029196</v>
+        <v>9.238286246180703</v>
       </c>
       <c r="E23">
-        <v>10.95330362920439</v>
+        <v>15.74903461187145</v>
       </c>
       <c r="F23">
-        <v>28.71292553144177</v>
+        <v>35.07796856562343</v>
       </c>
       <c r="G23">
-        <v>40.6159848110377</v>
+        <v>45.43984356341637</v>
       </c>
       <c r="H23">
-        <v>11.91389380021565</v>
+        <v>4.726077184882025</v>
       </c>
       <c r="I23">
-        <v>19.08139496719974</v>
+        <v>2.95133010413082</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.15131419926571</v>
       </c>
       <c r="K23">
-        <v>18.4778962018728</v>
+        <v>91.38712135191037</v>
       </c>
       <c r="L23">
-        <v>7.538378940959649</v>
+        <v>9.355514247601169</v>
       </c>
       <c r="M23">
-        <v>10.77194808952891</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>23.73326058499297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.17069254001195</v>
+        <v>28.88424622251212</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.544455630035721</v>
+        <v>8.858062757460029</v>
       </c>
       <c r="E24">
-        <v>10.93764261119694</v>
+        <v>14.9615503584212</v>
       </c>
       <c r="F24">
-        <v>27.30150435078535</v>
+        <v>32.826049697135</v>
       </c>
       <c r="G24">
-        <v>38.45464952314373</v>
+        <v>42.15333058411742</v>
       </c>
       <c r="H24">
-        <v>11.67372839754204</v>
+        <v>4.293362489707813</v>
       </c>
       <c r="I24">
-        <v>19.25860280953105</v>
+        <v>2.611260814615723</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.53937535033443</v>
       </c>
       <c r="K24">
-        <v>17.24500640293929</v>
+        <v>84.6651633800618</v>
       </c>
       <c r="L24">
-        <v>7.185145408557892</v>
+        <v>8.977468008545104</v>
       </c>
       <c r="M24">
-        <v>10.28919231263657</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>22.23983491203643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.20211566770106</v>
+        <v>26.182388850054</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.520916900906554</v>
+        <v>8.433382263809404</v>
       </c>
       <c r="E25">
-        <v>10.927932430031</v>
+        <v>14.06798381986425</v>
       </c>
       <c r="F25">
-        <v>25.81402527520256</v>
+        <v>30.26305665429396</v>
       </c>
       <c r="G25">
-        <v>36.17388772422036</v>
+        <v>38.37226155096981</v>
       </c>
       <c r="H25">
-        <v>11.45154610256331</v>
+        <v>3.80823538519009</v>
       </c>
       <c r="I25">
-        <v>19.50660331240586</v>
+        <v>2.742911760467198</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.86059191520358</v>
       </c>
       <c r="K25">
-        <v>15.82398261458457</v>
+        <v>76.8744542187396</v>
       </c>
       <c r="L25">
-        <v>6.801217830829823</v>
+        <v>8.551552035841476</v>
       </c>
       <c r="M25">
-        <v>9.761749413907086</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20.54866397757185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03951969628692</v>
+        <v>24.04110093417239</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.109342739526337</v>
+        <v>8.027886750593245</v>
       </c>
       <c r="E2">
-        <v>13.37374519381077</v>
+        <v>13.28268201674083</v>
       </c>
       <c r="F2">
-        <v>28.2667299322165</v>
+        <v>28.34303511283693</v>
       </c>
       <c r="G2">
-        <v>35.38732958941294</v>
+        <v>35.13343365496763</v>
       </c>
       <c r="H2">
-        <v>3.433895891336416</v>
+        <v>3.354680841890716</v>
       </c>
       <c r="I2">
-        <v>3.005390845382122</v>
+        <v>3.102319254932053</v>
       </c>
       <c r="J2">
-        <v>10.34735823756303</v>
+        <v>11.05223783547156</v>
       </c>
       <c r="K2">
-        <v>70.04831980844861</v>
+        <v>40.2691443334299</v>
       </c>
       <c r="L2">
-        <v>8.223014651705176</v>
+        <v>29.5980101736547</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>30.71468139066554</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.186645455428671</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>19.23898366166553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>19.32386268705346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47103589359181</v>
+        <v>22.47195615808966</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.883390285651688</v>
+        <v>7.804744145659217</v>
       </c>
       <c r="E3">
-        <v>12.88178551901011</v>
+        <v>12.79444530773608</v>
       </c>
       <c r="F3">
-        <v>26.85028448042646</v>
+        <v>26.934785288806</v>
       </c>
       <c r="G3">
-        <v>33.24182717978675</v>
+        <v>32.95197350688559</v>
       </c>
       <c r="H3">
-        <v>3.168886931167433</v>
+        <v>3.094831459489845</v>
       </c>
       <c r="I3">
-        <v>3.192510874708861</v>
+        <v>3.215684869259224</v>
       </c>
       <c r="J3">
-        <v>9.992843362994023</v>
+        <v>10.6995058599632</v>
       </c>
       <c r="K3">
-        <v>65.44940052185392</v>
+        <v>37.68607595734157</v>
       </c>
       <c r="L3">
-        <v>7.991494361741264</v>
+        <v>27.31880880382054</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>29.06880179346222</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.95708994745631</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18.31458698640349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>18.40649161526813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44996014040526</v>
+        <v>21.44831036159347</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.741811596232568</v>
+        <v>7.665026476722557</v>
       </c>
       <c r="E4">
-        <v>12.56964211876902</v>
+        <v>12.48468046524068</v>
       </c>
       <c r="F4">
-        <v>25.95136037904216</v>
+        <v>26.04076302455845</v>
       </c>
       <c r="G4">
-        <v>31.86560538638514</v>
+        <v>31.55283796348939</v>
       </c>
       <c r="H4">
-        <v>3.000396048147343</v>
+        <v>2.929570749923209</v>
       </c>
       <c r="I4">
-        <v>3.308238040789099</v>
+        <v>3.286613502937239</v>
       </c>
       <c r="J4">
-        <v>9.772546403405475</v>
+        <v>10.47856174933255</v>
       </c>
       <c r="K4">
-        <v>62.55294165479136</v>
+        <v>36.03380553955508</v>
       </c>
       <c r="L4">
-        <v>7.845153557692604</v>
+        <v>25.85993366964772</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>28.01808332727092</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.811990308613387</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.73037110786534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.8264330312077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0191248006034</v>
+        <v>21.01595753288552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.683450572109194</v>
+        <v>7.60745891157867</v>
       </c>
       <c r="E5">
-        <v>12.43999792932014</v>
+        <v>12.35603073401161</v>
       </c>
       <c r="F5">
-        <v>25.57808356242143</v>
+        <v>25.66945116702428</v>
       </c>
       <c r="G5">
-        <v>31.29031105318721</v>
+        <v>30.9679822938417</v>
       </c>
       <c r="H5">
-        <v>2.930255772198449</v>
+        <v>2.860763707333503</v>
       </c>
       <c r="I5">
-        <v>3.357057364133082</v>
+        <v>3.318444430511855</v>
       </c>
       <c r="J5">
-        <v>9.682227953079375</v>
+        <v>10.38753330990556</v>
       </c>
       <c r="K5">
-        <v>61.41579519922216</v>
+        <v>35.38695166432473</v>
       </c>
       <c r="L5">
-        <v>7.784498426319832</v>
+        <v>25.28252613137009</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>27.61265428388704</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.751850401548216</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.4883938357111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.58610948907991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94660719316666</v>
+        <v>20.94323187709646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.673720998381242</v>
+        <v>7.597863235921238</v>
       </c>
       <c r="E6">
-        <v>12.41832595121966</v>
+        <v>12.33452546089374</v>
       </c>
       <c r="F6">
-        <v>25.51569376411029</v>
+        <v>25.60738566441619</v>
       </c>
       <c r="G6">
-        <v>31.19392128654172</v>
+        <v>30.86999098136178</v>
       </c>
       <c r="H6">
-        <v>2.918518945771827</v>
+        <v>2.849249320598616</v>
       </c>
       <c r="I6">
-        <v>3.367086934272987</v>
+        <v>3.327116966868266</v>
       </c>
       <c r="J6">
-        <v>9.667201212890268</v>
+        <v>10.3723614672071</v>
       </c>
       <c r="K6">
-        <v>61.31282198545149</v>
+        <v>35.3306806671853</v>
       </c>
       <c r="L6">
-        <v>7.774366101008376</v>
+        <v>25.22414545557972</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>27.58466879086349</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.741804218555377</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.44798688784677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.54597464957174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44400016915299</v>
+        <v>21.44250429110943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.741027151216072</v>
+        <v>7.66737749984275</v>
       </c>
       <c r="E7">
-        <v>12.56790345499695</v>
+        <v>12.48391460176851</v>
       </c>
       <c r="F7">
-        <v>25.94635384316609</v>
+        <v>26.01437453672471</v>
       </c>
       <c r="G7">
-        <v>31.8579048590857</v>
+        <v>31.64770779094501</v>
       </c>
       <c r="H7">
-        <v>2.999456134613444</v>
+        <v>2.92782695495054</v>
       </c>
       <c r="I7">
-        <v>3.31378638727711</v>
+        <v>3.295833493059166</v>
       </c>
       <c r="J7">
-        <v>9.771330388547298</v>
+        <v>10.41290811594169</v>
       </c>
       <c r="K7">
-        <v>62.77205030764391</v>
+        <v>36.16451624352393</v>
       </c>
       <c r="L7">
-        <v>7.844339625908078</v>
+        <v>25.9549138830123</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>28.11935055606659</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.810374600902274</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.72712312641849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.80477958629771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51060482620635</v>
+        <v>23.51248066458465</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.032052139890791</v>
+        <v>7.96170020598827</v>
       </c>
       <c r="E8">
-        <v>13.20625994528617</v>
+        <v>13.11965719099261</v>
       </c>
       <c r="F8">
-        <v>27.78461698917618</v>
+        <v>27.79675514569134</v>
       </c>
       <c r="G8">
-        <v>34.65995109985743</v>
+        <v>34.70958518827328</v>
       </c>
       <c r="H8">
-        <v>3.343702730734627</v>
+        <v>3.263704999463086</v>
       </c>
       <c r="I8">
-        <v>3.075717945874242</v>
+        <v>3.152079809021598</v>
       </c>
       <c r="J8">
-        <v>10.22573123806345</v>
+        <v>10.72550877732605</v>
       </c>
       <c r="K8">
-        <v>68.7835940212962</v>
+        <v>39.56450643602791</v>
       </c>
       <c r="L8">
-        <v>8.144073807185194</v>
+        <v>28.95204751095706</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>30.28690385352518</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.105847747996728</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.92385651127014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>18.95330997683068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.11809087931507</v>
+        <v>27.09717337378987</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.578286412832897</v>
+        <v>8.503843148286238</v>
       </c>
       <c r="E9">
-        <v>14.37475454777097</v>
+        <v>14.28006832058898</v>
       </c>
       <c r="F9">
-        <v>31.14385874077339</v>
+        <v>31.1244553896378</v>
       </c>
       <c r="G9">
-        <v>39.67736712339207</v>
+        <v>39.85216641813968</v>
       </c>
       <c r="H9">
-        <v>3.974228018866569</v>
+        <v>3.881223971840846</v>
       </c>
       <c r="I9">
-        <v>2.607337829569494</v>
+        <v>2.866600236733145</v>
       </c>
       <c r="J9">
-        <v>11.09152949922473</v>
+        <v>11.53680706816828</v>
       </c>
       <c r="K9">
-        <v>79.22058890756904</v>
+        <v>45.46289011891675</v>
       </c>
       <c r="L9">
-        <v>8.697394173303568</v>
+        <v>34.16781471431436</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>34.0405758657236</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.654010747762616</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21.12872179770164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>21.13059711461237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52590840198576</v>
+        <v>29.44576208428604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.884428821538041</v>
+        <v>8.823476490341259</v>
       </c>
       <c r="E10">
-        <v>14.9697041834272</v>
+        <v>14.87397603118188</v>
       </c>
       <c r="F10">
-        <v>33.24101044481457</v>
+        <v>33.09863279908131</v>
       </c>
       <c r="G10">
-        <v>42.83526324425834</v>
+        <v>43.55217513222434</v>
       </c>
       <c r="H10">
-        <v>4.390914151458157</v>
+        <v>4.285150588458764</v>
       </c>
       <c r="I10">
-        <v>2.694300863279516</v>
+        <v>2.668270858387365</v>
       </c>
       <c r="J10">
-        <v>11.65729833565011</v>
+        <v>11.73351565437532</v>
       </c>
       <c r="K10">
-        <v>86.33114078562375</v>
+        <v>49.50431524872963</v>
       </c>
       <c r="L10">
-        <v>8.974023490037878</v>
+        <v>37.71882263528224</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>36.63706263650954</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.923069651711504</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22.54016366725865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>22.43479151483527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56501963939844</v>
+        <v>30.45336529123509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.360215101824506</v>
+        <v>8.326096156380039</v>
       </c>
       <c r="E11">
-        <v>13.49010492168442</v>
+        <v>13.39397220302777</v>
       </c>
       <c r="F11">
-        <v>32.37770784403025</v>
+        <v>32.01820846271706</v>
       </c>
       <c r="G11">
-        <v>42.24826716199698</v>
+        <v>43.97213997908852</v>
       </c>
       <c r="H11">
-        <v>4.847394041526716</v>
+        <v>4.743758998781571</v>
       </c>
       <c r="I11">
-        <v>2.863409948912086</v>
+        <v>2.595889036013995</v>
       </c>
       <c r="J11">
-        <v>11.47858615131887</v>
+        <v>10.86408043177734</v>
       </c>
       <c r="K11">
-        <v>89.71136125585014</v>
+        <v>51.43308922396653</v>
       </c>
       <c r="L11">
-        <v>8.219707577006734</v>
+        <v>39.38621871487984</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>37.90132034154981</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.158621485619385</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22.19997221975793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>21.90370686728005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.94890444533592</v>
+        <v>30.82617262337235</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.868699154705714</v>
+        <v>7.841267043162266</v>
       </c>
       <c r="E12">
-        <v>12.20656699501204</v>
+        <v>12.10332158442712</v>
       </c>
       <c r="F12">
-        <v>31.19120780199885</v>
+        <v>30.73493252225168</v>
       </c>
       <c r="G12">
-        <v>41.08306017396545</v>
+        <v>43.28035460224049</v>
       </c>
       <c r="H12">
-        <v>5.659153844630828</v>
+        <v>5.569660927151107</v>
       </c>
       <c r="I12">
-        <v>2.920602483785713</v>
+        <v>2.560507606004712</v>
       </c>
       <c r="J12">
-        <v>11.20182107985995</v>
+        <v>10.28735578639196</v>
       </c>
       <c r="K12">
-        <v>90.8143682008233</v>
+        <v>52.05887539346553</v>
       </c>
       <c r="L12">
-        <v>7.603112776957096</v>
+        <v>39.93783024669902</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>38.30246864933375</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.537808803501367</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21.60661327533282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>21.22431322819102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.86632728123295</v>
+        <v>30.74625180252937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.370543288927557</v>
+        <v>7.329764009735623</v>
       </c>
       <c r="E13">
-        <v>11.01068691841077</v>
+        <v>10.89429727201062</v>
       </c>
       <c r="F13">
-        <v>29.64972845199284</v>
+        <v>29.22501103919457</v>
       </c>
       <c r="G13">
-        <v>39.36227343677424</v>
+        <v>41.45007053135516</v>
       </c>
       <c r="H13">
-        <v>6.647495845637986</v>
+        <v>6.575136568961465</v>
       </c>
       <c r="I13">
-        <v>2.906780731808359</v>
+        <v>2.566314080210856</v>
       </c>
       <c r="J13">
-        <v>10.82648550831424</v>
+        <v>10.01864448051117</v>
       </c>
       <c r="K13">
-        <v>90.546897089683</v>
+        <v>51.90638383812416</v>
       </c>
       <c r="L13">
-        <v>7.068931256559059</v>
+        <v>39.80598852421834</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>38.20247448402375</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.004978006004915</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20.76483667295727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>20.40837653294141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.59665531019523</v>
+        <v>30.48420395699836</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.023711770050084</v>
+        <v>6.966345845214168</v>
       </c>
       <c r="E14">
-        <v>10.25339330606039</v>
+        <v>10.12693367090893</v>
       </c>
       <c r="F14">
-        <v>28.39037161458743</v>
+        <v>28.04419226543762</v>
       </c>
       <c r="G14">
-        <v>37.88080845467329</v>
+        <v>39.63579952565993</v>
       </c>
       <c r="H14">
-        <v>7.415416475090191</v>
+        <v>7.354506555593598</v>
       </c>
       <c r="I14">
-        <v>2.867465423457775</v>
+        <v>2.592203109730449</v>
       </c>
       <c r="J14">
-        <v>10.51574468022561</v>
+        <v>9.95669341077215</v>
       </c>
       <c r="K14">
-        <v>89.78932321383597</v>
+        <v>51.47700044073479</v>
       </c>
       <c r="L14">
-        <v>6.758398265068948</v>
+        <v>39.42602775868274</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>37.92850866834473</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.69776846596987</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20.05260581474442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>19.76346214967051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.4309102586133</v>
+        <v>30.32258936035078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.935995531800605</v>
+        <v>6.872000100626866</v>
       </c>
       <c r="E15">
-        <v>10.07696576797675</v>
+        <v>9.948303545721448</v>
       </c>
       <c r="F15">
-        <v>28.00619260325463</v>
+        <v>27.70335920732907</v>
       </c>
       <c r="G15">
-        <v>37.39671198688963</v>
+        <v>38.96160208753779</v>
       </c>
       <c r="H15">
-        <v>7.590206176888617</v>
+        <v>7.532450323228788</v>
       </c>
       <c r="I15">
-        <v>2.846492030909852</v>
+        <v>2.611731864001021</v>
       </c>
       <c r="J15">
-        <v>10.41938521290025</v>
+        <v>9.99508955713123</v>
       </c>
       <c r="K15">
-        <v>89.384250240553</v>
+        <v>51.2489374952461</v>
       </c>
       <c r="L15">
-        <v>6.690058343161265</v>
+        <v>39.21892399607103</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>37.78760772508436</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.631114416932589</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19.82529066198174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>19.57368543539891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46102307622637</v>
+        <v>29.37887625672974</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.89460680263508</v>
+        <v>6.809333715282643</v>
       </c>
       <c r="E16">
-        <v>10.02381765086944</v>
+        <v>9.896860390152225</v>
       </c>
       <c r="F16">
-        <v>27.34103447888015</v>
+        <v>27.23902991822467</v>
       </c>
       <c r="G16">
-        <v>36.29943369131288</v>
+        <v>36.94814431625919</v>
       </c>
       <c r="H16">
-        <v>7.299022044975037</v>
+        <v>7.246854722671416</v>
       </c>
       <c r="I16">
-        <v>2.708061172222736</v>
+        <v>2.701333241525481</v>
       </c>
       <c r="J16">
-        <v>10.23937806886987</v>
+        <v>10.43289424179269</v>
       </c>
       <c r="K16">
-        <v>86.6367325381926</v>
+        <v>49.69031687981177</v>
       </c>
       <c r="L16">
-        <v>6.666425511109198</v>
+        <v>37.84102141623062</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36.79252319122151</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.614737026070254</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19.35133176791257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>19.27512470878799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.85101104749148</v>
+        <v>28.78437360282656</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.046234320008575</v>
+        <v>6.954662415112988</v>
       </c>
       <c r="E17">
-        <v>10.36959420823564</v>
+        <v>10.24724462468937</v>
       </c>
       <c r="F17">
-        <v>27.52595460773528</v>
+        <v>27.50956691006525</v>
       </c>
       <c r="G17">
-        <v>36.27553409926026</v>
+        <v>36.5184045250513</v>
       </c>
       <c r="H17">
-        <v>6.617335463787326</v>
+        <v>6.563587835059535</v>
       </c>
       <c r="I17">
-        <v>2.623905086322607</v>
+        <v>2.756828564372523</v>
       </c>
       <c r="J17">
-        <v>10.27139974715878</v>
+        <v>10.72771861513538</v>
       </c>
       <c r="K17">
-        <v>84.91638599100503</v>
+        <v>48.71433131431511</v>
       </c>
       <c r="L17">
-        <v>6.801164830225326</v>
+        <v>36.97713587435681</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36.17066460407919</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.752949168227474</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19.37988948762061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>19.37909461112399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.49337206267155</v>
+        <v>28.43664851506479</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.39792503138431</v>
+        <v>7.306353281262156</v>
       </c>
       <c r="E18">
-        <v>11.20343430102692</v>
+        <v>11.08746158882831</v>
       </c>
       <c r="F18">
-        <v>28.46382777829792</v>
+        <v>28.48032265746995</v>
       </c>
       <c r="G18">
-        <v>37.18282499036569</v>
+        <v>37.25192340041686</v>
       </c>
       <c r="H18">
-        <v>5.608174201676158</v>
+        <v>5.545505499390882</v>
       </c>
       <c r="I18">
-        <v>2.567073126085487</v>
+        <v>2.779361745601739</v>
       </c>
       <c r="J18">
-        <v>10.48769353982466</v>
+        <v>11.04712990106452</v>
       </c>
       <c r="K18">
-        <v>83.74900462306361</v>
+        <v>48.04792798025661</v>
       </c>
       <c r="L18">
-        <v>7.156807369949357</v>
+        <v>36.40092411624599</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>35.73429275315296</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.110605613226239</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19.84426162839213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>19.87338771302059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.37226976796862</v>
+        <v>28.31795854695851</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.904832933361387</v>
+        <v>7.81640810775469</v>
       </c>
       <c r="E19">
-        <v>12.48343712892842</v>
+        <v>12.37454189109348</v>
       </c>
       <c r="F19">
-        <v>29.91663532800912</v>
+        <v>29.93708033400538</v>
       </c>
       <c r="G19">
-        <v>38.74959903501037</v>
+        <v>38.77341111298888</v>
       </c>
       <c r="H19">
-        <v>4.651050938840052</v>
+        <v>4.572543706385349</v>
       </c>
       <c r="I19">
-        <v>2.554485117098951</v>
+        <v>2.794314869528643</v>
       </c>
       <c r="J19">
-        <v>10.83112047735875</v>
+        <v>11.40790353696636</v>
       </c>
       <c r="K19">
-        <v>83.47852690970711</v>
+        <v>47.89632765149284</v>
       </c>
       <c r="L19">
-        <v>7.748714479451754</v>
+        <v>36.26050279707636</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>35.64318194640021</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.703781823322718</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20.61288087521965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>20.64696857463478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91642397048742</v>
+        <v>28.8482495476321</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.801489108467798</v>
+        <v>8.726741745704961</v>
       </c>
       <c r="E20">
-        <v>14.8066950844416</v>
+        <v>14.70787998255001</v>
       </c>
       <c r="F20">
-        <v>32.69100764389681</v>
+        <v>32.64277457259498</v>
       </c>
       <c r="G20">
-        <v>42.01408463236218</v>
+        <v>42.30890994677187</v>
       </c>
       <c r="H20">
-        <v>4.281293777770587</v>
+        <v>4.181206656859948</v>
       </c>
       <c r="I20">
-        <v>2.632150952014016</v>
+        <v>2.750135631473711</v>
       </c>
       <c r="J20">
-        <v>11.50788564996657</v>
+        <v>11.88145400046168</v>
       </c>
       <c r="K20">
-        <v>85.08804631142091</v>
+        <v>48.81138851086876</v>
       </c>
       <c r="L20">
-        <v>8.897664886775287</v>
+        <v>37.06417201242892</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>36.23151283703384</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.851026078117672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22.17065773166238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>22.14718472513088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.6775968148569</v>
+        <v>30.56149401689694</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.151624026934718</v>
+        <v>9.142449175387297</v>
       </c>
       <c r="E21">
-        <v>15.57045760647431</v>
+        <v>15.4902554008353</v>
       </c>
       <c r="F21">
-        <v>34.56786203485077</v>
+        <v>34.10619161077258</v>
       </c>
       <c r="G21">
-        <v>44.69782126019368</v>
+        <v>46.84231750995892</v>
       </c>
       <c r="H21">
-        <v>4.627437722216687</v>
+        <v>4.505416558609726</v>
       </c>
       <c r="I21">
-        <v>2.887686022020177</v>
+        <v>2.595060600504258</v>
       </c>
       <c r="J21">
-        <v>12.01155034103358</v>
+        <v>11.06805115064837</v>
       </c>
       <c r="K21">
-        <v>90.18568523955349</v>
+        <v>51.70602866140379</v>
       </c>
       <c r="L21">
-        <v>9.269572738558123</v>
+        <v>39.61402082554046</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>38.08735987819362</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.205410385117936</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23.39441351351358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>23.01142543636474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.77799867576358</v>
+        <v>31.63042662556875</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.336759089582156</v>
+        <v>9.374622793165136</v>
       </c>
       <c r="E22">
-        <v>15.95134966340477</v>
+        <v>15.88506750817327</v>
       </c>
       <c r="F22">
-        <v>35.65549582971174</v>
+        <v>34.91066755717318</v>
       </c>
       <c r="G22">
-        <v>46.27839669729178</v>
+        <v>49.69815117333483</v>
       </c>
       <c r="H22">
-        <v>4.838227130936908</v>
+        <v>4.702281352658417</v>
       </c>
       <c r="I22">
-        <v>3.04608517104812</v>
+        <v>2.537904863496468</v>
       </c>
       <c r="J22">
-        <v>12.3103103404663</v>
+        <v>10.45886989665676</v>
       </c>
       <c r="K22">
-        <v>93.18425791350997</v>
+        <v>53.40228480930088</v>
       </c>
       <c r="L22">
-        <v>9.453026007985811</v>
+        <v>41.12257178706465</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>39.19182060407417</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.377131984002645</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24.11726262710952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>23.48752373345667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.19327424365959</v>
+        <v>31.0644202503292</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.238286246180703</v>
+        <v>9.243313511404107</v>
       </c>
       <c r="E23">
-        <v>15.74903461187145</v>
+        <v>15.67258680719857</v>
       </c>
       <c r="F23">
-        <v>35.07796856562343</v>
+        <v>34.52764307574076</v>
       </c>
       <c r="G23">
-        <v>45.43984356341637</v>
+        <v>47.98648064517359</v>
       </c>
       <c r="H23">
-        <v>4.726077184882025</v>
+        <v>4.598958229347792</v>
       </c>
       <c r="I23">
-        <v>2.95133010413082</v>
+        <v>2.530020984283539</v>
       </c>
       <c r="J23">
-        <v>12.15131419926571</v>
+        <v>10.92341145862073</v>
       </c>
       <c r="K23">
-        <v>91.38712135191037</v>
+        <v>52.3804719472959</v>
       </c>
       <c r="L23">
-        <v>9.355514247601169</v>
+        <v>40.23222066100623</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>38.50354430454689</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.287427439887651</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23.73326058499297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>23.27299908253348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.88424622251212</v>
+        <v>28.8192920804388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.858062757460029</v>
+        <v>8.783203166882483</v>
       </c>
       <c r="E24">
-        <v>14.9615503584212</v>
+        <v>14.86319043270787</v>
       </c>
       <c r="F24">
-        <v>32.826049697135</v>
+        <v>32.78085239121013</v>
       </c>
       <c r="G24">
-        <v>42.15333058411742</v>
+        <v>42.43180556379011</v>
       </c>
       <c r="H24">
-        <v>4.293362489707813</v>
+        <v>4.19320881540126</v>
       </c>
       <c r="I24">
-        <v>2.611260814615723</v>
+        <v>2.733997186527882</v>
       </c>
       <c r="J24">
-        <v>11.53937535033443</v>
+        <v>11.92316867064679</v>
       </c>
       <c r="K24">
-        <v>84.6651633800618</v>
+        <v>48.56286390895796</v>
       </c>
       <c r="L24">
-        <v>8.977468008545104</v>
+        <v>36.87302669105424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>36.04806680493461</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.931075349671303</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22.23983491203643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>22.2191561075559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.182388850054</v>
+        <v>26.17781287942759</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.433382263809404</v>
+        <v>8.355736747454284</v>
       </c>
       <c r="E25">
-        <v>14.06798381986425</v>
+        <v>13.97408086733524</v>
       </c>
       <c r="F25">
-        <v>30.26305665429396</v>
+        <v>30.27888592833164</v>
       </c>
       <c r="G25">
-        <v>38.37226155096981</v>
+        <v>38.39086070481644</v>
       </c>
       <c r="H25">
-        <v>3.80823538519009</v>
+        <v>3.719725781203446</v>
       </c>
       <c r="I25">
-        <v>2.742911760467198</v>
+        <v>2.95868204390336</v>
       </c>
       <c r="J25">
-        <v>10.86059191520358</v>
+        <v>11.40584764061105</v>
       </c>
       <c r="K25">
-        <v>76.8744542187396</v>
+        <v>44.14167653325618</v>
       </c>
       <c r="L25">
-        <v>8.551552035841476</v>
+        <v>32.9711687850687</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33.22389382932783</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.510549869673072</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20.54866397757185</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>20.58115068527086</v>
       </c>
     </row>
   </sheetData>
